--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_23_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_23_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1367995.291426569</v>
+        <v>1367298.079351817</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9791381.184977565</v>
+        <v>9791381.184977558</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681858</v>
       </c>
     </row>
     <row r="9">
@@ -1373,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>36.52913045842459</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>109.5614772844451</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.52913045842487</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>14.6027240492545</v>
+        <v>14.60272404925445</v>
       </c>
       <c r="U11" t="n">
-        <v>45.36989468446021</v>
+        <v>45.36989468446015</v>
       </c>
       <c r="V11" t="n">
         <v>109.5614772844451</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>18.57281058888613</v>
+        <v>18.57281058888607</v>
       </c>
       <c r="V12" t="n">
-        <v>25.84283118547819</v>
+        <v>25.84283118547813</v>
       </c>
       <c r="W12" t="n">
-        <v>43.9234468958231</v>
+        <v>43.92344689582305</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>12.19046343716813</v>
+        <v>12.19046343716807</v>
       </c>
       <c r="T13" t="n">
-        <v>21.26109377168837</v>
+        <v>21.26109377168831</v>
       </c>
       <c r="U13" t="n">
-        <v>79.97353471945354</v>
+        <v>79.97353471945348</v>
       </c>
       <c r="V13" t="n">
-        <v>46.87045121276222</v>
+        <v>46.87045121276216</v>
       </c>
       <c r="W13" t="n">
-        <v>80.0266770332386</v>
+        <v>80.02667703323854</v>
       </c>
       <c r="X13" t="n">
-        <v>20.07446007813232</v>
+        <v>20.07446007813226</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.68277401359128</v>
+        <v>12.68277401359123</v>
       </c>
     </row>
     <row r="14">
@@ -1607,70 +1607,70 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>96.50174919213921</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>45.36989468446015</v>
+      </c>
+      <c r="V14" t="n">
+        <v>51.13185450767904</v>
+      </c>
+      <c r="W14" t="n">
         <v>109.5614772844451</v>
       </c>
-      <c r="G14" t="n">
+      <c r="X14" t="n">
         <v>109.5614772844451</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>109.5614772844451</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>18.57281058888613</v>
+        <v>18.57281058888607</v>
       </c>
       <c r="V15" t="n">
-        <v>25.84283118547819</v>
+        <v>25.84283118547813</v>
       </c>
       <c r="W15" t="n">
-        <v>43.9234468958231</v>
+        <v>43.92344689582305</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>12.19046343716813</v>
+        <v>12.19046343716807</v>
       </c>
       <c r="T16" t="n">
-        <v>21.26109377168837</v>
+        <v>21.26109377168831</v>
       </c>
       <c r="U16" t="n">
-        <v>79.97353471945354</v>
+        <v>79.97353471945348</v>
       </c>
       <c r="V16" t="n">
-        <v>46.87045121276222</v>
+        <v>46.87045121276216</v>
       </c>
       <c r="W16" t="n">
-        <v>80.0266770332386</v>
+        <v>80.02667703323854</v>
       </c>
       <c r="X16" t="n">
-        <v>20.07446007813232</v>
+        <v>20.07446007813226</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.68277401359128</v>
+        <v>12.68277401359123</v>
       </c>
     </row>
     <row r="17">
@@ -2081,7 +2081,7 @@
         <v>50.94519922159066</v>
       </c>
       <c r="C20" t="n">
-        <v>34.21388490913824</v>
+        <v>34.21388490913836</v>
       </c>
       <c r="D20" t="n">
         <v>23.833521984794</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>218.7458996381567</v>
+        <v>218.7458996381568</v>
       </c>
       <c r="C26" t="n">
-        <v>202.0145853257043</v>
+        <v>202.0145853257044</v>
       </c>
       <c r="D26" t="n">
         <v>191.6342224013601</v>
       </c>
       <c r="E26" t="n">
-        <v>218.1475254020491</v>
+        <v>218.1475254020492</v>
       </c>
       <c r="F26" t="n">
-        <v>242.3233531273025</v>
+        <v>242.3233531273026</v>
       </c>
       <c r="G26" t="n">
-        <v>249.3596420767516</v>
+        <v>249.3596420767517</v>
       </c>
       <c r="H26" t="n">
         <v>167.8007004165661</v>
       </c>
       <c r="I26" t="n">
-        <v>20.02865584088113</v>
+        <v>20.02865584088121</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>28.93982322889948</v>
+        <v>28.93982322889957</v>
       </c>
       <c r="T26" t="n">
-        <v>55.69811355019311</v>
+        <v>55.6981135501932</v>
       </c>
       <c r="U26" t="n">
-        <v>86.46528418539881</v>
+        <v>86.4652841853989</v>
       </c>
       <c r="V26" t="n">
-        <v>163.562711169281</v>
+        <v>163.5627111692811</v>
       </c>
       <c r="W26" t="n">
         <v>185.5596066473163</v>
@@ -2621,7 +2621,7 @@
         <v>205.8910887779311</v>
       </c>
       <c r="Y26" t="n">
-        <v>221.7165613979975</v>
+        <v>221.7165613979976</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4016152571064993</v>
+        <v>0.4016152571065845</v>
       </c>
       <c r="C27" t="n">
-        <v>6.055073574162662</v>
+        <v>6.055073574162748</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>32.28063304949954</v>
+        <v>32.28063304949962</v>
       </c>
       <c r="U27" t="n">
-        <v>59.66820008982474</v>
+        <v>59.66820008982483</v>
       </c>
       <c r="V27" t="n">
-        <v>66.9382206864168</v>
+        <v>66.93822068641688</v>
       </c>
       <c r="W27" t="n">
-        <v>85.01883639676171</v>
+        <v>85.0188363967618</v>
       </c>
       <c r="X27" t="n">
-        <v>39.49111925523994</v>
+        <v>39.49111925524002</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.7006410653477</v>
+        <v>38.70064106534778</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.11318113744548</v>
+        <v>15.11318113744557</v>
       </c>
       <c r="C28" t="n">
-        <v>2.366042577964009</v>
+        <v>2.366042577964095</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.683755257251311</v>
+        <v>2.683755257251397</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>53.28585293810674</v>
+        <v>53.28585293810683</v>
       </c>
       <c r="T28" t="n">
-        <v>62.35648327262697</v>
+        <v>62.35648327262706</v>
       </c>
       <c r="U28" t="n">
-        <v>121.0689242203921</v>
+        <v>121.0689242203922</v>
       </c>
       <c r="V28" t="n">
-        <v>87.96584071370083</v>
+        <v>87.96584071370091</v>
       </c>
       <c r="W28" t="n">
-        <v>121.1220665341772</v>
+        <v>121.1220665341773</v>
       </c>
       <c r="X28" t="n">
-        <v>61.16984957907093</v>
+        <v>61.16984957907101</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.77816351452989</v>
+        <v>53.77816351452998</v>
       </c>
     </row>
     <row r="29">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.8060764092572</v>
+        <v>189.8060764092571</v>
       </c>
       <c r="C41" t="n">
-        <v>173.0747620968048</v>
+        <v>173.0747620968047</v>
       </c>
       <c r="D41" t="n">
-        <v>162.6943991724606</v>
+        <v>162.6943991724605</v>
       </c>
       <c r="E41" t="n">
         <v>189.2077021731496</v>
       </c>
       <c r="F41" t="n">
-        <v>213.383529898403</v>
+        <v>213.3835298984029</v>
       </c>
       <c r="G41" t="n">
-        <v>220.4198188478521</v>
+        <v>220.419818847852</v>
       </c>
       <c r="H41" t="n">
-        <v>138.8608771876666</v>
+        <v>138.8608771876665</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.75829032129363</v>
+        <v>26.75829032129354</v>
       </c>
       <c r="U41" t="n">
-        <v>57.52546095649933</v>
+        <v>57.52546095649924</v>
       </c>
       <c r="V41" t="n">
-        <v>134.6228879403815</v>
+        <v>134.6228879403814</v>
       </c>
       <c r="W41" t="n">
-        <v>156.6197834184168</v>
+        <v>156.6197834184167</v>
       </c>
       <c r="X41" t="n">
-        <v>176.9512655490316</v>
+        <v>176.9512655490315</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.776738169098</v>
+        <v>192.7767381690979</v>
       </c>
     </row>
     <row r="42">
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>3.340809820600051</v>
+        <v>3.340809820599966</v>
       </c>
       <c r="U42" t="n">
-        <v>30.72837686092526</v>
+        <v>30.72837686092517</v>
       </c>
       <c r="V42" t="n">
-        <v>37.99839745751731</v>
+        <v>37.99839745751723</v>
       </c>
       <c r="W42" t="n">
-        <v>56.07901316786223</v>
+        <v>56.07901316786214</v>
       </c>
       <c r="X42" t="n">
-        <v>10.55129602634045</v>
+        <v>10.55129602634037</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.760817836448211</v>
+        <v>9.760817836448126</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.34602970920725</v>
+        <v>24.34602970920717</v>
       </c>
       <c r="T43" t="n">
-        <v>33.41666004372749</v>
+        <v>33.4166600437274</v>
       </c>
       <c r="U43" t="n">
-        <v>92.12910099149266</v>
+        <v>92.12910099149258</v>
       </c>
       <c r="V43" t="n">
-        <v>59.02601748480134</v>
+        <v>59.02601748480126</v>
       </c>
       <c r="W43" t="n">
-        <v>92.18224330527772</v>
+        <v>92.18224330527764</v>
       </c>
       <c r="X43" t="n">
-        <v>32.23002635017144</v>
+        <v>32.23002635017136</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.83834028563041</v>
+        <v>24.83834028563032</v>
       </c>
     </row>
     <row r="44">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.3311886300991</v>
+        <v>156.3311886300987</v>
       </c>
       <c r="C11" t="n">
-        <v>156.3311886300991</v>
+        <v>156.3311886300987</v>
       </c>
       <c r="D11" t="n">
-        <v>45.66302975692214</v>
+        <v>119.4330770559325</v>
       </c>
       <c r="E11" t="n">
-        <v>45.66302975692214</v>
+        <v>119.4330770559325</v>
       </c>
       <c r="F11" t="n">
-        <v>45.66302975692214</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="G11" t="n">
-        <v>45.66302975692214</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="H11" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="I11" t="n">
-        <v>29.62098450621253</v>
+        <v>29.62098450621256</v>
       </c>
       <c r="J11" t="n">
         <v>102.9522777021147</v>
       </c>
       <c r="K11" t="n">
-        <v>102.9522777021147</v>
+        <v>160.5812000320953</v>
       </c>
       <c r="L11" t="n">
-        <v>211.4181402137154</v>
+        <v>160.5812000320953</v>
       </c>
       <c r="M11" t="n">
-        <v>284.2779528112518</v>
+        <v>233.4410126296317</v>
       </c>
       <c r="N11" t="n">
-        <v>301.3082927999554</v>
+        <v>233.4410126296317</v>
       </c>
       <c r="O11" t="n">
-        <v>370.7187054350952</v>
+        <v>332.9775192221206</v>
       </c>
       <c r="P11" t="n">
-        <v>426.2118985284619</v>
+        <v>337.5711970088517</v>
       </c>
       <c r="Q11" t="n">
-        <v>426.2118985284619</v>
+        <v>397.6759205270591</v>
       </c>
       <c r="R11" t="n">
-        <v>426.2118985284619</v>
+        <v>426.2118985284616</v>
       </c>
       <c r="S11" t="n">
-        <v>438.2459091377806</v>
+        <v>438.2459091377804</v>
       </c>
       <c r="T11" t="n">
-        <v>423.4956828254023</v>
+        <v>423.4956828254022</v>
       </c>
       <c r="U11" t="n">
-        <v>377.6675063764526</v>
+        <v>377.6675063764525</v>
       </c>
       <c r="V11" t="n">
         <v>266.9993475032757</v>
       </c>
       <c r="W11" t="n">
-        <v>156.3311886300991</v>
+        <v>156.3311886300987</v>
       </c>
       <c r="X11" t="n">
-        <v>156.3311886300991</v>
+        <v>156.3311886300987</v>
       </c>
       <c r="Y11" t="n">
-        <v>156.3311886300991</v>
+        <v>156.3311886300987</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="C12" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="D12" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="E12" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="F12" t="n">
-        <v>70.69898927567698</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="G12" t="n">
-        <v>70.69898927567698</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="H12" t="n">
-        <v>70.69898927567698</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="I12" t="n">
-        <v>70.69898927567698</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="J12" t="n">
-        <v>70.69898927567698</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="K12" t="n">
-        <v>70.69898927567698</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="L12" t="n">
-        <v>70.69898927567698</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="M12" t="n">
-        <v>70.69898927567698</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="N12" t="n">
-        <v>97.99632087991462</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="O12" t="n">
-        <v>97.99632087991462</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="P12" t="n">
-        <v>97.99632087991462</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.99632087991462</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="R12" t="n">
-        <v>97.99632087991462</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="S12" t="n">
-        <v>97.99632087991462</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="T12" t="n">
-        <v>97.99632087991462</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="U12" t="n">
-        <v>79.235906143666</v>
+        <v>79.23590614366589</v>
       </c>
       <c r="V12" t="n">
-        <v>53.1320362593446</v>
+        <v>53.13203625934455</v>
       </c>
       <c r="W12" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="X12" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="C13" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="D13" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="E13" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="F13" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="G13" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="H13" t="n">
-        <v>54.8237436088445</v>
+        <v>54.82374360884454</v>
       </c>
       <c r="I13" t="n">
-        <v>113.6140690067298</v>
+        <v>54.82374360884454</v>
       </c>
       <c r="J13" t="n">
-        <v>135.2374822336272</v>
+        <v>54.82374360884454</v>
       </c>
       <c r="K13" t="n">
-        <v>241.7795638626644</v>
+        <v>54.82374360884454</v>
       </c>
       <c r="L13" t="n">
-        <v>241.7795638626644</v>
+        <v>54.82374360884454</v>
       </c>
       <c r="M13" t="n">
-        <v>241.7795638626644</v>
+        <v>76.8969303180813</v>
       </c>
       <c r="N13" t="n">
-        <v>241.7795638626644</v>
+        <v>185.362792829682</v>
       </c>
       <c r="O13" t="n">
-        <v>241.7795638626644</v>
+        <v>185.362792829682</v>
       </c>
       <c r="P13" t="n">
-        <v>241.7795638626644</v>
+        <v>284.6027507747092</v>
       </c>
       <c r="Q13" t="n">
-        <v>241.7795638626644</v>
+        <v>284.6027507747092</v>
       </c>
       <c r="R13" t="n">
-        <v>284.6027507747096</v>
+        <v>284.6027507747092</v>
       </c>
       <c r="S13" t="n">
-        <v>272.2891513432267</v>
+        <v>272.2891513432263</v>
       </c>
       <c r="T13" t="n">
-        <v>250.813299048592</v>
+        <v>250.8132990485917</v>
       </c>
       <c r="U13" t="n">
-        <v>170.0319508471237</v>
+        <v>170.0319508471235</v>
       </c>
       <c r="V13" t="n">
-        <v>122.6880607332225</v>
+        <v>122.6880607332223</v>
       </c>
       <c r="W13" t="n">
-        <v>41.85303342692087</v>
+        <v>41.85303342692075</v>
       </c>
       <c r="X13" t="n">
-        <v>21.57580102476701</v>
+        <v>21.57580102476695</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>327.5777502646037</v>
+        <v>119.4330770559325</v>
       </c>
       <c r="C14" t="n">
-        <v>327.5777502646037</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="D14" t="n">
-        <v>327.5777502646037</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="E14" t="n">
-        <v>230.1012359291095</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="F14" t="n">
+        <v>8.764918182755608</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8.764918182755608</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8.764918182755608</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29.62098450621256</v>
+      </c>
+      <c r="J14" t="n">
+        <v>29.62098450621256</v>
+      </c>
+      <c r="K14" t="n">
+        <v>29.62098450621256</v>
+      </c>
+      <c r="L14" t="n">
+        <v>88.01267656278463</v>
+      </c>
+      <c r="M14" t="n">
+        <v>88.01267656278463</v>
+      </c>
+      <c r="N14" t="n">
+        <v>188.206414931687</v>
+      </c>
+      <c r="O14" t="n">
+        <v>296.6722774432877</v>
+      </c>
+      <c r="P14" t="n">
+        <v>352.1654705366543</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>397.6759205270591</v>
+      </c>
+      <c r="R14" t="n">
+        <v>426.2118985284616</v>
+      </c>
+      <c r="S14" t="n">
+        <v>438.2459091377804</v>
+      </c>
+      <c r="T14" t="n">
+        <v>438.2459091377804</v>
+      </c>
+      <c r="U14" t="n">
+        <v>392.4177326888308</v>
+      </c>
+      <c r="V14" t="n">
+        <v>340.7693948022863</v>
+      </c>
+      <c r="W14" t="n">
+        <v>230.1012359291094</v>
+      </c>
+      <c r="X14" t="n">
         <v>119.4330770559325</v>
       </c>
-      <c r="G14" t="n">
-        <v>8.764918182755611</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8.764918182755611</v>
-      </c>
-      <c r="I14" t="n">
-        <v>29.62098450621253</v>
-      </c>
-      <c r="J14" t="n">
-        <v>102.9522777021147</v>
-      </c>
-      <c r="K14" t="n">
-        <v>211.4181402137154</v>
-      </c>
-      <c r="L14" t="n">
-        <v>269.8098322702875</v>
-      </c>
-      <c r="M14" t="n">
-        <v>342.669644867824</v>
-      </c>
-      <c r="N14" t="n">
-        <v>417.9058504971825</v>
-      </c>
-      <c r="O14" t="n">
-        <v>417.9058504971825</v>
-      </c>
-      <c r="P14" t="n">
-        <v>417.9058504971825</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>426.2118985284618</v>
-      </c>
-      <c r="R14" t="n">
-        <v>426.2118985284618</v>
-      </c>
-      <c r="S14" t="n">
-        <v>438.2459091377806</v>
-      </c>
-      <c r="T14" t="n">
-        <v>438.2459091377806</v>
-      </c>
-      <c r="U14" t="n">
-        <v>438.2459091377806</v>
-      </c>
-      <c r="V14" t="n">
-        <v>327.5777502646037</v>
-      </c>
-      <c r="W14" t="n">
-        <v>327.5777502646037</v>
-      </c>
-      <c r="X14" t="n">
-        <v>327.5777502646037</v>
-      </c>
       <c r="Y14" t="n">
-        <v>327.5777502646037</v>
+        <v>119.4330770559325</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="C15" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="D15" t="n">
-        <v>8.764918182755611</v>
+        <v>68.11885969949172</v>
       </c>
       <c r="E15" t="n">
-        <v>8.764918182755611</v>
+        <v>68.11885969949172</v>
       </c>
       <c r="F15" t="n">
-        <v>8.764918182755611</v>
+        <v>68.11885969949172</v>
       </c>
       <c r="G15" t="n">
-        <v>8.764918182755611</v>
+        <v>68.11885969949172</v>
       </c>
       <c r="H15" t="n">
-        <v>8.764918182755611</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="I15" t="n">
-        <v>8.764918182755611</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="J15" t="n">
-        <v>8.764918182755611</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="K15" t="n">
-        <v>8.764918182755611</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="L15" t="n">
-        <v>8.764918182755611</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="M15" t="n">
-        <v>8.764918182755611</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="N15" t="n">
-        <v>8.764918182755611</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="O15" t="n">
-        <v>8.764918182755611</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="P15" t="n">
-        <v>8.764918182755611</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.99632087991462</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="R15" t="n">
-        <v>97.99632087991462</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="S15" t="n">
-        <v>97.99632087991462</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="T15" t="n">
-        <v>97.99632087991462</v>
+        <v>97.99632087991445</v>
       </c>
       <c r="U15" t="n">
-        <v>79.235906143666</v>
+        <v>79.23590614366589</v>
       </c>
       <c r="V15" t="n">
-        <v>53.1320362593446</v>
+        <v>53.13203625934455</v>
       </c>
       <c r="W15" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="X15" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.40720031182072</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="C16" t="n">
-        <v>20.40720031182072</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="D16" t="n">
-        <v>76.89693031808171</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="E16" t="n">
-        <v>76.89693031808171</v>
+        <v>67.26528110692365</v>
       </c>
       <c r="F16" t="n">
-        <v>76.89693031808171</v>
+        <v>67.26528110692365</v>
       </c>
       <c r="G16" t="n">
-        <v>76.89693031808171</v>
+        <v>105.2927990081741</v>
       </c>
       <c r="H16" t="n">
-        <v>76.89693031808171</v>
+        <v>151.3516244342631</v>
       </c>
       <c r="I16" t="n">
-        <v>76.89693031808171</v>
+        <v>151.3516244342631</v>
       </c>
       <c r="J16" t="n">
-        <v>76.89693031808171</v>
+        <v>151.3516244342631</v>
       </c>
       <c r="K16" t="n">
-        <v>76.89693031808171</v>
+        <v>208.310623141328</v>
       </c>
       <c r="L16" t="n">
-        <v>76.89693031808171</v>
+        <v>208.310623141328</v>
       </c>
       <c r="M16" t="n">
-        <v>76.89693031808171</v>
+        <v>208.310623141328</v>
       </c>
       <c r="N16" t="n">
-        <v>185.3627928296824</v>
+        <v>208.310623141328</v>
       </c>
       <c r="O16" t="n">
-        <v>185.3627928296824</v>
+        <v>241.7795638626639</v>
       </c>
       <c r="P16" t="n">
-        <v>284.6027507747096</v>
+        <v>241.7795638626639</v>
       </c>
       <c r="Q16" t="n">
-        <v>284.6027507747096</v>
+        <v>241.7795638626639</v>
       </c>
       <c r="R16" t="n">
-        <v>284.6027507747096</v>
+        <v>284.6027507747092</v>
       </c>
       <c r="S16" t="n">
-        <v>272.2891513432267</v>
+        <v>272.2891513432263</v>
       </c>
       <c r="T16" t="n">
-        <v>250.813299048592</v>
+        <v>250.8132990485917</v>
       </c>
       <c r="U16" t="n">
-        <v>170.0319508471237</v>
+        <v>170.0319508471235</v>
       </c>
       <c r="V16" t="n">
-        <v>122.6880607332225</v>
+        <v>122.6880607332223</v>
       </c>
       <c r="W16" t="n">
-        <v>41.85303342692087</v>
+        <v>41.85303342692075</v>
       </c>
       <c r="X16" t="n">
-        <v>21.57580102476701</v>
+        <v>21.57580102476695</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>275.912217425521</v>
+        <v>275.9122174255207</v>
       </c>
       <c r="C17" t="n">
-        <v>241.3527377193207</v>
+        <v>241.3527377193204</v>
       </c>
       <c r="D17" t="n">
-        <v>217.2784730882156</v>
+        <v>217.2784730882153</v>
       </c>
       <c r="E17" t="n">
-        <v>166.4230943150005</v>
+        <v>166.4230943150001</v>
       </c>
       <c r="F17" t="n">
-        <v>91.14768753647883</v>
+        <v>91.14768753647837</v>
       </c>
       <c r="G17" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="H17" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="I17" t="n">
         <v>117.2307806943563</v>
@@ -5516,49 +5516,49 @@
         <v>117.2307806943563</v>
       </c>
       <c r="K17" t="n">
-        <v>117.2307806943563</v>
+        <v>140.7921220457235</v>
       </c>
       <c r="L17" t="n">
-        <v>136.5965126909115</v>
+        <v>140.7921220457235</v>
       </c>
       <c r="M17" t="n">
-        <v>136.5965126909115</v>
+        <v>249.2579845573242</v>
       </c>
       <c r="N17" t="n">
-        <v>136.5965126909115</v>
+        <v>249.2579845573242</v>
       </c>
       <c r="O17" t="n">
-        <v>136.5965126909115</v>
+        <v>357.7238470689248</v>
       </c>
       <c r="P17" t="n">
-        <v>245.0623752025122</v>
+        <v>357.7238470689248</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.0623752025122</v>
+        <v>357.7238470689248</v>
       </c>
       <c r="R17" t="n">
-        <v>245.0623752025122</v>
+        <v>357.7238470689248</v>
       </c>
       <c r="S17" t="n">
-        <v>353.5282377141128</v>
+        <v>357.7238470689248</v>
       </c>
       <c r="T17" t="n">
-        <v>353.5282377141128</v>
+        <v>357.7238470689248</v>
       </c>
       <c r="U17" t="n">
-        <v>434.0502997829684</v>
+        <v>438.2459091377804</v>
       </c>
       <c r="V17" t="n">
-        <v>438.2459091377806</v>
+        <v>438.2459091377804</v>
       </c>
       <c r="W17" t="n">
-        <v>420.3076200158109</v>
+        <v>420.3076200158108</v>
       </c>
       <c r="X17" t="n">
-        <v>381.8324802568565</v>
+        <v>381.8324802568563</v>
       </c>
       <c r="Y17" t="n">
-        <v>327.3720146190469</v>
+        <v>327.3720146190468</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="C18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="D18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="E18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="F18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="G18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="H18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="I18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="J18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="K18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="L18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="M18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="N18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="O18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="P18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="R18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="S18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="T18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="U18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="V18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="W18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="X18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="C19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="D19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="E19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="F19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="G19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="H19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="I19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="J19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="K19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="L19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="M19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="N19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="O19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="P19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="R19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="S19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="T19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="U19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="V19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="W19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="X19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5729,28 @@
         <v>275.9122174255207</v>
       </c>
       <c r="C20" t="n">
-        <v>241.3527377193205</v>
+        <v>241.3527377193204</v>
       </c>
       <c r="D20" t="n">
-        <v>217.2784730882154</v>
+        <v>217.2784730882153</v>
       </c>
       <c r="E20" t="n">
-        <v>166.4230943150002</v>
+        <v>166.4230943150001</v>
       </c>
       <c r="F20" t="n">
-        <v>91.1476875364784</v>
+        <v>91.14768753647837</v>
       </c>
       <c r="G20" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="H20" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="I20" t="n">
-        <v>8.764918182755611</v>
+        <v>117.2307806943563</v>
       </c>
       <c r="J20" t="n">
-        <v>8.764918182755611</v>
+        <v>117.2307806943563</v>
       </c>
       <c r="K20" t="n">
         <v>117.2307806943563</v>
@@ -5759,43 +5759,43 @@
         <v>117.2307806943563</v>
       </c>
       <c r="M20" t="n">
-        <v>117.2307806943563</v>
+        <v>225.6966432059569</v>
       </c>
       <c r="N20" t="n">
-        <v>217.1185747597671</v>
+        <v>245.062375202512</v>
       </c>
       <c r="O20" t="n">
-        <v>217.1185747597671</v>
+        <v>245.062375202512</v>
       </c>
       <c r="P20" t="n">
-        <v>217.1185747597671</v>
+        <v>245.062375202512</v>
       </c>
       <c r="Q20" t="n">
-        <v>325.5844372713677</v>
+        <v>353.5282377141127</v>
       </c>
       <c r="R20" t="n">
-        <v>325.5844372713677</v>
+        <v>353.5282377141127</v>
       </c>
       <c r="S20" t="n">
-        <v>325.5844372713677</v>
+        <v>353.5282377141127</v>
       </c>
       <c r="T20" t="n">
-        <v>434.0502997829684</v>
+        <v>353.5282377141127</v>
       </c>
       <c r="U20" t="n">
-        <v>434.0502997829684</v>
+        <v>434.0502997829682</v>
       </c>
       <c r="V20" t="n">
-        <v>438.2459091377806</v>
+        <v>438.2459091377804</v>
       </c>
       <c r="W20" t="n">
-        <v>420.3076200158107</v>
+        <v>420.3076200158108</v>
       </c>
       <c r="X20" t="n">
-        <v>381.8324802568562</v>
+        <v>381.8324802568563</v>
       </c>
       <c r="Y20" t="n">
-        <v>327.3720146190466</v>
+        <v>327.3720146190468</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="C21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="D21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="E21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="F21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="G21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="H21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="I21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="J21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="K21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="L21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="M21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="N21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="O21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="P21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="R21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="S21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="T21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="U21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="V21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="W21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="X21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="C22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="D22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="E22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="F22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="G22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="H22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="I22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="J22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="K22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="L22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="M22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="N22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="O22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="P22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="R22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="S22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="T22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="U22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="V22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="W22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="X22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.764918182755611</v>
+        <v>8.764918182755608</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>275.9122174255207</v>
       </c>
       <c r="C23" t="n">
-        <v>241.3527377193204</v>
+        <v>241.3527377193205</v>
       </c>
       <c r="D23" t="n">
-        <v>217.2784730882154</v>
+        <v>217.2784730882155</v>
       </c>
       <c r="E23" t="n">
-        <v>166.4230943150001</v>
+        <v>166.4230943150005</v>
       </c>
       <c r="F23" t="n">
-        <v>91.14768753647832</v>
+        <v>91.1476875364784</v>
       </c>
       <c r="G23" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="H23" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="I23" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="J23" t="n">
-        <v>8.764918182755602</v>
+        <v>112.8483216029785</v>
       </c>
       <c r="K23" t="n">
-        <v>117.2307806943562</v>
+        <v>112.8483216029785</v>
       </c>
       <c r="L23" t="n">
-        <v>117.2307806943562</v>
+        <v>112.8483216029785</v>
       </c>
       <c r="M23" t="n">
-        <v>117.2307806943562</v>
+        <v>221.3141841145791</v>
       </c>
       <c r="N23" t="n">
-        <v>117.2307806943562</v>
+        <v>221.3141841145791</v>
       </c>
       <c r="O23" t="n">
-        <v>117.2307806943562</v>
+        <v>221.3141841145791</v>
       </c>
       <c r="P23" t="n">
-        <v>225.6966432059567</v>
+        <v>329.7800466261798</v>
       </c>
       <c r="Q23" t="n">
-        <v>225.6966432059567</v>
+        <v>438.2459091377804</v>
       </c>
       <c r="R23" t="n">
-        <v>225.6966432059567</v>
+        <v>438.2459091377804</v>
       </c>
       <c r="S23" t="n">
-        <v>334.1625057175573</v>
+        <v>438.2459091377804</v>
       </c>
       <c r="T23" t="n">
-        <v>438.2459091377801</v>
+        <v>438.2459091377804</v>
       </c>
       <c r="U23" t="n">
-        <v>438.2459091377801</v>
+        <v>438.2459091377804</v>
       </c>
       <c r="V23" t="n">
-        <v>438.2459091377801</v>
+        <v>438.2459091377804</v>
       </c>
       <c r="W23" t="n">
-        <v>420.3076200158102</v>
+        <v>420.3076200158109</v>
       </c>
       <c r="X23" t="n">
-        <v>381.8324802568557</v>
+        <v>381.8324802568563</v>
       </c>
       <c r="Y23" t="n">
-        <v>327.3720146190465</v>
+        <v>327.3720146190466</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="C24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="D24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="E24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="F24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="G24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="H24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="I24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="J24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="K24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="L24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="M24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="N24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="O24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="P24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="R24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="S24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="T24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="U24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="V24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="W24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="X24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="C25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="D25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="E25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="F25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="G25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="H25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="I25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="J25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="K25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="L25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="M25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="N25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="O25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="P25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="R25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="S25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="T25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="U25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="V25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="W25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="X25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.764918182755602</v>
+        <v>8.764918182755608</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>1150.964721442309</v>
       </c>
       <c r="D26" t="n">
-        <v>957.3947998247738</v>
+        <v>957.3947998247736</v>
       </c>
       <c r="E26" t="n">
-        <v>737.0437640651282</v>
+        <v>737.0437640651279</v>
       </c>
       <c r="F26" t="n">
-        <v>492.2727003001761</v>
+        <v>492.2727003001758</v>
       </c>
       <c r="G26" t="n">
         <v>240.3942739600225</v>
       </c>
       <c r="H26" t="n">
-        <v>70.89861697359235</v>
+        <v>70.89861697359244</v>
       </c>
       <c r="I26" t="n">
         <v>50.66765147775283</v>
@@ -6227,13 +6227,13 @@
         <v>257.4163840488928</v>
       </c>
       <c r="K26" t="n">
-        <v>444.7801823065095</v>
+        <v>549.9058240683989</v>
       </c>
       <c r="L26" t="n">
-        <v>834.3162617704794</v>
+        <v>834.3162617704795</v>
       </c>
       <c r="M26" t="n">
-        <v>1165.989967596601</v>
+        <v>1329.310772846307</v>
       </c>
       <c r="N26" t="n">
         <v>1650.834130994609</v>
@@ -6251,10 +6251,10 @@
         <v>2533.382573887641</v>
       </c>
       <c r="S26" t="n">
-        <v>2504.150429211985</v>
+        <v>2504.150429211984</v>
       </c>
       <c r="T26" t="n">
-        <v>2447.889708454215</v>
+        <v>2447.889708454214</v>
       </c>
       <c r="U26" t="n">
         <v>2360.551037559872</v>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.78388741125047</v>
+        <v>56.78388741125055</v>
       </c>
       <c r="C27" t="n">
         <v>50.66765147775283</v>
@@ -6309,46 +6309,46 @@
         <v>50.66765147775283</v>
       </c>
       <c r="L27" t="n">
-        <v>140.5853966902453</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="M27" t="n">
-        <v>140.5853966902453</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="N27" t="n">
-        <v>140.5853966902453</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="O27" t="n">
-        <v>382.5407215528635</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="P27" t="n">
-        <v>382.5407215528635</v>
+        <v>382.5407215528642</v>
       </c>
       <c r="Q27" t="n">
-        <v>382.5407215528635</v>
+        <v>382.5407215528642</v>
       </c>
       <c r="R27" t="n">
-        <v>382.5407215528635</v>
+        <v>382.5407215528642</v>
       </c>
       <c r="S27" t="n">
-        <v>382.5407215528635</v>
+        <v>382.5407215528642</v>
       </c>
       <c r="T27" t="n">
-        <v>349.934021502864</v>
+        <v>349.9340215028646</v>
       </c>
       <c r="U27" t="n">
-        <v>289.6631123212228</v>
+        <v>289.6631123212234</v>
       </c>
       <c r="V27" t="n">
-        <v>222.0487479915089</v>
+        <v>222.0487479915093</v>
       </c>
       <c r="W27" t="n">
-        <v>136.1711354695274</v>
+        <v>136.1711354695277</v>
       </c>
       <c r="X27" t="n">
-        <v>96.28111601979006</v>
+        <v>96.28111601979032</v>
       </c>
       <c r="Y27" t="n">
-        <v>57.18955938812572</v>
+        <v>57.18955938812589</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05759347569627</v>
+        <v>53.05759347569636</v>
       </c>
       <c r="C28" t="n">
         <v>50.66765147775283</v>
       </c>
       <c r="D28" t="n">
-        <v>66.4729458780846</v>
+        <v>53.37851537396636</v>
       </c>
       <c r="E28" t="n">
-        <v>84.28887319632337</v>
+        <v>53.37851537396636</v>
       </c>
       <c r="F28" t="n">
-        <v>84.28887319632337</v>
+        <v>53.37851537396636</v>
       </c>
       <c r="G28" t="n">
-        <v>81.57800930010993</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="H28" t="n">
-        <v>86.95239912026959</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="I28" t="n">
-        <v>86.95239912026959</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="J28" t="n">
-        <v>86.95239912026959</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="K28" t="n">
-        <v>86.95239912026959</v>
+        <v>116.5252975008607</v>
       </c>
       <c r="L28" t="n">
-        <v>158.6752161683463</v>
+        <v>351.5689197986433</v>
       </c>
       <c r="M28" t="n">
-        <v>158.6752161683463</v>
+        <v>351.5689197986433</v>
       </c>
       <c r="N28" t="n">
-        <v>411.3018478382763</v>
+        <v>604.1955514685732</v>
       </c>
       <c r="O28" t="n">
-        <v>478.4536365487932</v>
+        <v>604.1955514685732</v>
       </c>
       <c r="P28" t="n">
-        <v>634.7347267181713</v>
+        <v>634.7347267181721</v>
       </c>
       <c r="Q28" t="n">
-        <v>634.7347267181713</v>
+        <v>634.7347267181721</v>
       </c>
       <c r="R28" t="n">
-        <v>634.7347267181713</v>
+        <v>634.7347267181721</v>
       </c>
       <c r="S28" t="n">
-        <v>580.9106328412958</v>
+        <v>580.9106328412964</v>
       </c>
       <c r="T28" t="n">
-        <v>517.9242861012685</v>
+        <v>517.9242861012691</v>
       </c>
       <c r="U28" t="n">
-        <v>395.6324434544077</v>
+        <v>395.6324434544083</v>
       </c>
       <c r="V28" t="n">
-        <v>306.778058895114</v>
+        <v>306.7780588951144</v>
       </c>
       <c r="W28" t="n">
-        <v>184.4325371434198</v>
+        <v>184.4325371434202</v>
       </c>
       <c r="X28" t="n">
-        <v>122.6448102958734</v>
+        <v>122.6448102958737</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.32343300846949</v>
+        <v>68.32343300846966</v>
       </c>
     </row>
     <row r="29">
@@ -6473,16 +6473,16 @@
         <v>1224.185131084418</v>
       </c>
       <c r="N29" t="n">
-        <v>1706.347299291304</v>
+        <v>1709.029294482426</v>
       </c>
       <c r="O29" t="n">
-        <v>1963.824337698931</v>
+        <v>1966.506332890053</v>
       </c>
       <c r="P29" t="n">
-        <v>2309.957045119727</v>
+        <v>2254.443876823031</v>
       </c>
       <c r="Q29" t="n">
-        <v>2533.38257388764</v>
+        <v>2477.869405590945</v>
       </c>
       <c r="R29" t="n">
         <v>2533.38257388764</v>
@@ -6491,7 +6491,7 @@
         <v>2504.150429211984</v>
       </c>
       <c r="T29" t="n">
-        <v>2447.889708454213</v>
+        <v>2447.889708454214</v>
       </c>
       <c r="U29" t="n">
         <v>2360.551037559872</v>
@@ -6537,19 +6537,19 @@
         <v>50.66765147775281</v>
       </c>
       <c r="I30" t="n">
-        <v>137.9175066626186</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="J30" t="n">
-        <v>334.8857330957658</v>
+        <v>117.8125479244151</v>
       </c>
       <c r="K30" t="n">
-        <v>334.8857330957658</v>
+        <v>117.8125479244151</v>
       </c>
       <c r="L30" t="n">
-        <v>334.8857330957658</v>
+        <v>141.6397986744594</v>
       </c>
       <c r="M30" t="n">
-        <v>382.5407215528635</v>
+        <v>141.6397986744594</v>
       </c>
       <c r="N30" t="n">
         <v>382.5407215528635</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.7684573719097</v>
+        <v>53.05759347569625</v>
       </c>
       <c r="C31" t="n">
-        <v>53.37851537396625</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="D31" t="n">
-        <v>53.37851537396625</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="E31" t="n">
         <v>53.37851537396625</v>
@@ -6622,49 +6622,49 @@
         <v>142.50898535901</v>
       </c>
       <c r="K31" t="n">
-        <v>154.9492079608663</v>
+        <v>142.50898535901</v>
       </c>
       <c r="L31" t="n">
-        <v>226.672025008943</v>
+        <v>142.50898535901</v>
       </c>
       <c r="M31" t="n">
-        <v>226.672025008943</v>
+        <v>228.723539277574</v>
       </c>
       <c r="N31" t="n">
-        <v>226.672025008943</v>
+        <v>481.3501709475041</v>
       </c>
       <c r="O31" t="n">
-        <v>333.8827791353699</v>
+        <v>548.501959658021</v>
       </c>
       <c r="P31" t="n">
-        <v>531.4410590626046</v>
+        <v>607.0574819971189</v>
       </c>
       <c r="Q31" t="n">
-        <v>635.3068393082686</v>
+        <v>634.7347267181713</v>
       </c>
       <c r="R31" t="n">
-        <v>637.4455906143847</v>
+        <v>634.7347267181713</v>
       </c>
       <c r="S31" t="n">
-        <v>583.6214967375092</v>
+        <v>580.9106328412958</v>
       </c>
       <c r="T31" t="n">
-        <v>520.635149997482</v>
+        <v>517.9242861012685</v>
       </c>
       <c r="U31" t="n">
-        <v>398.3433073506212</v>
+        <v>395.6324434544077</v>
       </c>
       <c r="V31" t="n">
-        <v>309.4889227913274</v>
+        <v>306.7780588951139</v>
       </c>
       <c r="W31" t="n">
-        <v>187.1434010396333</v>
+        <v>184.4325371434198</v>
       </c>
       <c r="X31" t="n">
-        <v>125.3556741920869</v>
+        <v>122.6448102958734</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.03429690468292</v>
+        <v>68.32343300846946</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1355.01985813494</v>
+        <v>1355.019858134939</v>
       </c>
       <c r="C32" t="n">
         <v>1150.964721442309</v>
       </c>
       <c r="D32" t="n">
-        <v>957.3947998247741</v>
+        <v>957.3947998247736</v>
       </c>
       <c r="E32" t="n">
-        <v>737.0437640651282</v>
+        <v>737.043764065128</v>
       </c>
       <c r="F32" t="n">
         <v>492.272700300176</v>
@@ -6701,16 +6701,16 @@
         <v>257.4163840488928</v>
       </c>
       <c r="K32" t="n">
-        <v>608.1009875562154</v>
+        <v>444.7801823065095</v>
       </c>
       <c r="L32" t="n">
         <v>892.511425258296</v>
       </c>
       <c r="M32" t="n">
-        <v>1387.505936334123</v>
+        <v>1384.823941143002</v>
       </c>
       <c r="N32" t="n">
-        <v>1709.029294482425</v>
+        <v>1706.347299291304</v>
       </c>
       <c r="O32" t="n">
         <v>2127.145142948637</v>
@@ -6734,16 +6734,16 @@
         <v>2360.551037559871</v>
       </c>
       <c r="V32" t="n">
-        <v>2195.336177792921</v>
+        <v>2195.33617779292</v>
       </c>
       <c r="W32" t="n">
-        <v>2007.902231684521</v>
+        <v>2007.90223168452</v>
       </c>
       <c r="X32" t="n">
-        <v>1799.931434939136</v>
+        <v>1799.931434939135</v>
       </c>
       <c r="Y32" t="n">
-        <v>1575.975312314896</v>
+        <v>1575.975312314895</v>
       </c>
     </row>
     <row r="33">
@@ -6759,46 +6759,46 @@
         <v>50.66765147775281</v>
       </c>
       <c r="D33" t="n">
-        <v>50.66765147775281</v>
+        <v>69.33715738855965</v>
       </c>
       <c r="E33" t="n">
-        <v>59.51535735735666</v>
+        <v>69.33715738855965</v>
       </c>
       <c r="F33" t="n">
-        <v>59.51535735735666</v>
+        <v>69.33715738855965</v>
       </c>
       <c r="G33" t="n">
-        <v>59.51535735735666</v>
+        <v>69.33715738855965</v>
       </c>
       <c r="H33" t="n">
-        <v>116.1620636593971</v>
+        <v>69.33715738855965</v>
       </c>
       <c r="I33" t="n">
-        <v>116.1620636593971</v>
+        <v>69.33715738855965</v>
       </c>
       <c r="J33" t="n">
-        <v>116.1620636593971</v>
+        <v>69.33715738855965</v>
       </c>
       <c r="K33" t="n">
-        <v>300.2764789765761</v>
+        <v>69.33715738855965</v>
       </c>
       <c r="L33" t="n">
-        <v>300.2764789765761</v>
+        <v>69.33715738855965</v>
       </c>
       <c r="M33" t="n">
-        <v>300.2764789765761</v>
+        <v>69.33715738855965</v>
       </c>
       <c r="N33" t="n">
-        <v>300.2764789765761</v>
+        <v>130.9062595238919</v>
       </c>
       <c r="O33" t="n">
-        <v>300.2764789765761</v>
+        <v>130.9062595238919</v>
       </c>
       <c r="P33" t="n">
-        <v>300.2764789765761</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="Q33" t="n">
-        <v>300.2764789765761</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="R33" t="n">
         <v>382.5407215528635</v>
@@ -6844,40 +6844,40 @@
         <v>68.48357879599156</v>
       </c>
       <c r="F34" t="n">
-        <v>87.10695284999105</v>
+        <v>68.48357879599156</v>
       </c>
       <c r="G34" t="n">
-        <v>84.39608895377761</v>
+        <v>65.77271489977812</v>
       </c>
       <c r="H34" t="n">
-        <v>84.39608895377761</v>
+        <v>65.77271489977812</v>
       </c>
       <c r="I34" t="n">
-        <v>84.39608895377761</v>
+        <v>65.77271489977812</v>
       </c>
       <c r="J34" t="n">
-        <v>84.39608895377761</v>
+        <v>65.77271489977812</v>
       </c>
       <c r="K34" t="n">
-        <v>237.8721314527893</v>
+        <v>241.5337427513403</v>
       </c>
       <c r="L34" t="n">
-        <v>460.0304960577441</v>
+        <v>313.256559799417</v>
       </c>
       <c r="M34" t="n">
-        <v>460.0304960577441</v>
+        <v>399.471113717981</v>
       </c>
       <c r="N34" t="n">
-        <v>535.7536064646163</v>
+        <v>399.471113717981</v>
       </c>
       <c r="O34" t="n">
-        <v>598.3585007345264</v>
+        <v>462.0760079878912</v>
       </c>
       <c r="P34" t="n">
-        <v>632.5959754120552</v>
+        <v>530.8689464725072</v>
       </c>
       <c r="Q34" t="n">
-        <v>632.5959754120552</v>
+        <v>634.7347267181713</v>
       </c>
       <c r="R34" t="n">
         <v>634.7347267181713</v>
@@ -6932,31 +6932,31 @@
         <v>41.9027332949972</v>
       </c>
       <c r="I35" t="n">
-        <v>50.72478900913536</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="J35" t="n">
-        <v>286.1239465768859</v>
+        <v>277.3018908627477</v>
       </c>
       <c r="K35" t="n">
-        <v>665.458975080819</v>
+        <v>656.6369193666808</v>
       </c>
       <c r="L35" t="n">
-        <v>711.8166565280723</v>
+        <v>656.6369193666808</v>
       </c>
       <c r="M35" t="n">
-        <v>1043.490362354194</v>
+        <v>988.3106251928024</v>
       </c>
       <c r="N35" t="n">
-        <v>1382.996306284812</v>
+        <v>1309.448849038086</v>
       </c>
       <c r="O35" t="n">
-        <v>1640.473344692439</v>
+        <v>1758.89711769203</v>
       </c>
       <c r="P35" t="n">
-        <v>1826.558743593252</v>
+        <v>1758.89711769203</v>
       </c>
       <c r="Q35" t="n">
-        <v>2078.634697357776</v>
+        <v>2010.973071456553</v>
       </c>
       <c r="R35" t="n">
         <v>2095.13666474986</v>
@@ -7008,34 +7008,34 @@
         <v>41.9027332949972</v>
       </c>
       <c r="H36" t="n">
-        <v>76.14460172219006</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14460172219006</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="J36" t="n">
-        <v>76.14460172219006</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="K36" t="n">
-        <v>76.14460172219006</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="L36" t="n">
-        <v>76.14460172219006</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="M36" t="n">
-        <v>76.14460172219006</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="N36" t="n">
-        <v>76.14460172219006</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="O36" t="n">
-        <v>76.14460172219006</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="P36" t="n">
-        <v>191.8610274057988</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="Q36" t="n">
-        <v>191.8610274057988</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="R36" t="n">
         <v>191.8610274057988</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.59110896553666</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="C37" t="n">
-        <v>55.59110896553666</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="D37" t="n">
-        <v>55.59110896553666</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="E37" t="n">
-        <v>55.59110896553666</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="F37" t="n">
-        <v>55.59110896553666</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="G37" t="n">
-        <v>55.59110896553666</v>
+        <v>67.89624058692888</v>
       </c>
       <c r="H37" t="n">
-        <v>55.59110896553666</v>
+        <v>67.89624058692888</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3474237541033</v>
+        <v>67.89624058692888</v>
       </c>
       <c r="J37" t="n">
-        <v>102.3474237541033</v>
+        <v>67.89624058692888</v>
       </c>
       <c r="K37" t="n">
-        <v>201.7004509502331</v>
+        <v>67.89624058692888</v>
       </c>
       <c r="L37" t="n">
-        <v>273.4232679983098</v>
+        <v>67.89624058692888</v>
       </c>
       <c r="M37" t="n">
-        <v>273.4232679983098</v>
+        <v>281.6445187058595</v>
       </c>
       <c r="N37" t="n">
-        <v>273.4232679983098</v>
+        <v>281.6445187058595</v>
       </c>
       <c r="O37" t="n">
-        <v>273.4232679983098</v>
+        <v>372.8998379723802</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6607426758385</v>
+        <v>372.8998379723802</v>
       </c>
       <c r="Q37" t="n">
         <v>372.8998379723802</v>
@@ -7175,25 +7175,25 @@
         <v>286.1239465768861</v>
       </c>
       <c r="K38" t="n">
-        <v>286.1239465768861</v>
+        <v>473.4877448345027</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5056145252831</v>
+        <v>949.8694127828996</v>
       </c>
       <c r="M38" t="n">
-        <v>1281.051939050873</v>
+        <v>1468.41573730849</v>
       </c>
       <c r="N38" t="n">
-        <v>1378.71290063152</v>
+        <v>1468.41573730849</v>
       </c>
       <c r="O38" t="n">
-        <v>1636.189939039147</v>
+        <v>1799.601528501288</v>
       </c>
       <c r="P38" t="n">
-        <v>2010.973071456553</v>
+        <v>1843.060710985336</v>
       </c>
       <c r="Q38" t="n">
-        <v>2010.973071456553</v>
+        <v>2095.13666474986</v>
       </c>
       <c r="R38" t="n">
         <v>2095.13666474986</v>
@@ -7239,40 +7239,40 @@
         <v>41.9027332949972</v>
       </c>
       <c r="F39" t="n">
-        <v>91.80279377859992</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="G39" t="n">
-        <v>91.80279377859992</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="H39" t="n">
-        <v>91.80279377859992</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="I39" t="n">
-        <v>91.80279377859992</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="J39" t="n">
-        <v>91.80279377859992</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="K39" t="n">
-        <v>91.80279377859992</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="L39" t="n">
-        <v>91.80279377859992</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80279377859992</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="N39" t="n">
-        <v>91.80279377859992</v>
+        <v>71.41473077440577</v>
       </c>
       <c r="O39" t="n">
-        <v>91.80279377859992</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="P39" t="n">
-        <v>91.80279377859992</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="Q39" t="n">
-        <v>184.1284900968925</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="R39" t="n">
         <v>191.8610274057982</v>
@@ -7312,43 +7312,43 @@
         <v>41.9027332949972</v>
       </c>
       <c r="D40" t="n">
-        <v>86.35845269193955</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="E40" t="n">
-        <v>86.35845269193955</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="F40" t="n">
-        <v>86.35845269193955</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="G40" t="n">
-        <v>86.35845269193955</v>
+        <v>67.89624058692897</v>
       </c>
       <c r="H40" t="n">
-        <v>86.35845269193955</v>
+        <v>67.89624058692897</v>
       </c>
       <c r="I40" t="n">
-        <v>86.35845269193955</v>
+        <v>67.89624058692897</v>
       </c>
       <c r="J40" t="n">
-        <v>206.8502115698074</v>
+        <v>67.89624058692897</v>
       </c>
       <c r="K40" t="n">
-        <v>206.8502115698074</v>
+        <v>162.4043116066475</v>
       </c>
       <c r="L40" t="n">
-        <v>232.1636901611065</v>
+        <v>162.4043116066475</v>
       </c>
       <c r="M40" t="n">
-        <v>232.1636901611065</v>
+        <v>162.4043116066475</v>
       </c>
       <c r="N40" t="n">
-        <v>336.5372255645892</v>
+        <v>338.4499189785643</v>
       </c>
       <c r="O40" t="n">
-        <v>403.689014275106</v>
+        <v>338.4499189785643</v>
       </c>
       <c r="P40" t="n">
-        <v>403.689014275106</v>
+        <v>338.4499189785643</v>
       </c>
       <c r="Q40" t="n">
         <v>403.689014275106</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1150.631106402407</v>
+        <v>1150.631106402408</v>
       </c>
       <c r="C41" t="n">
-        <v>975.8081143854326</v>
+        <v>975.8081143854331</v>
       </c>
       <c r="D41" t="n">
-        <v>811.4703374435533</v>
+        <v>811.4703374435538</v>
       </c>
       <c r="E41" t="n">
-        <v>620.3514463595636</v>
+        <v>620.3514463595643</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8125272702678</v>
+        <v>404.8125272702684</v>
       </c>
       <c r="G41" t="n">
         <v>182.1662456057715</v>
@@ -7409,22 +7409,22 @@
         <v>41.9027332949972</v>
       </c>
       <c r="J41" t="n">
-        <v>41.9027332949972</v>
+        <v>139.962672317047</v>
       </c>
       <c r="K41" t="n">
-        <v>421.2377617989303</v>
+        <v>519.2977008209803</v>
       </c>
       <c r="L41" t="n">
-        <v>705.6481995010108</v>
+        <v>519.2977008209803</v>
       </c>
       <c r="M41" t="n">
-        <v>1224.194524026601</v>
+        <v>1037.844025346571</v>
       </c>
       <c r="N41" t="n">
-        <v>1737.68911242122</v>
+        <v>1359.367383494873</v>
       </c>
       <c r="O41" t="n">
-        <v>1843.060710985336</v>
+        <v>1799.601528501288</v>
       </c>
       <c r="P41" t="n">
         <v>1843.060710985336</v>
@@ -7451,10 +7451,10 @@
         <v>1715.81704592502</v>
       </c>
       <c r="X41" t="n">
-        <v>1537.078393855291</v>
+        <v>1537.078393855292</v>
       </c>
       <c r="Y41" t="n">
-        <v>1342.354415906707</v>
+        <v>1342.354415906708</v>
       </c>
     </row>
     <row r="42">
@@ -7482,55 +7482,55 @@
         <v>41.9027332949972</v>
       </c>
       <c r="H42" t="n">
-        <v>41.9027332949972</v>
+        <v>86.38621648850486</v>
       </c>
       <c r="I42" t="n">
-        <v>41.9027332949972</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="J42" t="n">
-        <v>41.9027332949972</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="K42" t="n">
-        <v>41.9027332949972</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="L42" t="n">
-        <v>41.9027332949972</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="M42" t="n">
-        <v>41.9027332949972</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="N42" t="n">
-        <v>41.9027332949972</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="O42" t="n">
-        <v>41.9027332949972</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="P42" t="n">
-        <v>41.9027332949972</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="Q42" t="n">
-        <v>191.8610274057988</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="R42" t="n">
-        <v>191.8610274057988</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="S42" t="n">
-        <v>191.8610274057988</v>
+        <v>191.8610274057982</v>
       </c>
       <c r="T42" t="n">
-        <v>188.4864720314553</v>
+        <v>188.4864720314548</v>
       </c>
       <c r="U42" t="n">
-        <v>157.4477075254702</v>
+        <v>157.4477075254698</v>
       </c>
       <c r="V42" t="n">
-        <v>119.0654878714122</v>
+        <v>119.065487871412</v>
       </c>
       <c r="W42" t="n">
-        <v>62.42002002508676</v>
+        <v>62.42002002508659</v>
       </c>
       <c r="X42" t="n">
-        <v>51.76214525100549</v>
+        <v>51.76214525100541</v>
       </c>
       <c r="Y42" t="n">
         <v>41.9027332949972</v>
@@ -7561,55 +7561,55 @@
         <v>41.9027332949972</v>
       </c>
       <c r="H43" t="n">
-        <v>75.92754811176735</v>
+        <v>75.92754811176744</v>
       </c>
       <c r="I43" t="n">
-        <v>75.92754811176735</v>
+        <v>75.92754811176744</v>
       </c>
       <c r="J43" t="n">
-        <v>75.92754811176735</v>
+        <v>75.92754811176744</v>
       </c>
       <c r="K43" t="n">
-        <v>88.36777071362359</v>
+        <v>75.92754811176744</v>
       </c>
       <c r="L43" t="n">
-        <v>88.36777071362359</v>
+        <v>75.92754811176744</v>
       </c>
       <c r="M43" t="n">
-        <v>88.36777071362359</v>
+        <v>75.92754811176744</v>
       </c>
       <c r="N43" t="n">
-        <v>281.6445187058595</v>
+        <v>180.3010835152502</v>
       </c>
       <c r="O43" t="n">
-        <v>372.8998379723802</v>
+        <v>251.2439716428558</v>
       </c>
       <c r="P43" t="n">
-        <v>372.8998379723802</v>
+        <v>338.4499189785643</v>
       </c>
       <c r="Q43" t="n">
-        <v>372.8998379723802</v>
+        <v>403.689014275106</v>
       </c>
       <c r="R43" t="n">
-        <v>403.6890142751067</v>
+        <v>403.689014275106</v>
       </c>
       <c r="S43" t="n">
-        <v>379.0970650738872</v>
+        <v>379.0970650738867</v>
       </c>
       <c r="T43" t="n">
-        <v>345.342863009516</v>
+        <v>345.3428630095156</v>
       </c>
       <c r="U43" t="n">
-        <v>252.2831650383113</v>
+        <v>252.2831650383109</v>
       </c>
       <c r="V43" t="n">
-        <v>192.6609251546735</v>
+        <v>192.6609251546733</v>
       </c>
       <c r="W43" t="n">
-        <v>99.54754807863544</v>
+        <v>99.54754807863527</v>
       </c>
       <c r="X43" t="n">
-        <v>66.99196590674509</v>
+        <v>66.99196590674501</v>
       </c>
       <c r="Y43" t="n">
         <v>41.9027332949972</v>
@@ -7643,28 +7643,28 @@
         <v>41.9027332949972</v>
       </c>
       <c r="I44" t="n">
-        <v>50.72478900913536</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="J44" t="n">
-        <v>286.1239465768859</v>
+        <v>277.3018908627477</v>
       </c>
       <c r="K44" t="n">
-        <v>577.0405952902358</v>
+        <v>656.6369193666808</v>
       </c>
       <c r="L44" t="n">
-        <v>861.4510329923164</v>
+        <v>1133.018587315078</v>
       </c>
       <c r="M44" t="n">
-        <v>1379.997357517907</v>
+        <v>1651.564911840668</v>
       </c>
       <c r="N44" t="n">
-        <v>1701.520715666209</v>
+        <v>1651.564911840668</v>
       </c>
       <c r="O44" t="n">
-        <v>1758.89711769203</v>
+        <v>2006.670234109878</v>
       </c>
       <c r="P44" t="n">
-        <v>1758.89711769203</v>
+        <v>2010.973071456553</v>
       </c>
       <c r="Q44" t="n">
         <v>2010.973071456553</v>
@@ -7701,55 +7701,55 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="C45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="D45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="E45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="F45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="G45" t="n">
-        <v>99.48887119835265</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="H45" t="n">
-        <v>99.48887119835265</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="I45" t="n">
-        <v>99.48887119835265</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="J45" t="n">
-        <v>99.48887119835265</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="K45" t="n">
-        <v>191.8610274057988</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="L45" t="n">
-        <v>191.8610274057988</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="M45" t="n">
-        <v>191.8610274057988</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="N45" t="n">
-        <v>191.8610274057988</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="O45" t="n">
-        <v>191.8610274057988</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="P45" t="n">
-        <v>191.8610274057988</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="Q45" t="n">
-        <v>191.8610274057988</v>
+        <v>46.52369546459971</v>
       </c>
       <c r="R45" t="n">
-        <v>191.8610274057988</v>
+        <v>162.0001888132152</v>
       </c>
       <c r="S45" t="n">
         <v>191.8610274057988</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.9027332949972</v>
+        <v>55.59110896553666</v>
       </c>
       <c r="C46" t="n">
-        <v>68.21077613942332</v>
+        <v>55.59110896553666</v>
       </c>
       <c r="D46" t="n">
-        <v>68.21077613942332</v>
+        <v>55.59110896553666</v>
       </c>
       <c r="E46" t="n">
-        <v>68.21077613942332</v>
+        <v>55.59110896553666</v>
       </c>
       <c r="F46" t="n">
-        <v>68.21077613942332</v>
+        <v>55.59110896553666</v>
       </c>
       <c r="G46" t="n">
-        <v>68.21077613942332</v>
+        <v>55.59110896553666</v>
       </c>
       <c r="H46" t="n">
-        <v>68.21077613942332</v>
+        <v>73.10677394777883</v>
       </c>
       <c r="I46" t="n">
-        <v>68.21077613942332</v>
+        <v>73.10677394777883</v>
       </c>
       <c r="J46" t="n">
-        <v>166.7992736293494</v>
+        <v>73.10677394777883</v>
       </c>
       <c r="K46" t="n">
-        <v>166.7992736293494</v>
+        <v>73.10677394777883</v>
       </c>
       <c r="L46" t="n">
-        <v>166.7992736293494</v>
+        <v>73.10677394777883</v>
       </c>
       <c r="M46" t="n">
-        <v>166.7992736293494</v>
+        <v>73.10677394777883</v>
       </c>
       <c r="N46" t="n">
-        <v>271.1728090328321</v>
+        <v>177.4803093512615</v>
       </c>
       <c r="O46" t="n">
-        <v>271.1728090328321</v>
+        <v>177.4803093512615</v>
       </c>
       <c r="P46" t="n">
-        <v>271.1728090328321</v>
+        <v>403.6890142751067</v>
       </c>
       <c r="Q46" t="n">
         <v>403.6890142751067</v>
@@ -8693,25 +8693,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>238.9412630330979</v>
+        <v>147.0843927263264</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>130.0697325517947</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>30.43039793671628</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>160.0957483487176</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R11" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>96.52639965566433</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>105.8235180915232</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>131.9938865249829</v>
       </c>
       <c r="K14" t="n">
-        <v>257.4163444820759</v>
+        <v>147.8548671976309</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>132.4701295536352</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>25.20962902984236</v>
       </c>
       <c r="O14" t="n">
-        <v>22.93581869860981</v>
+        <v>39.4499493701625</v>
       </c>
       <c r="P14" t="n">
-        <v>150.0121694568369</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9082,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>98.44763558242219</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>135.5402542435673</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9948,31 +9948,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>97.14738262933705</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>89.06968960704245</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>33.29123000646053</v>
       </c>
       <c r="M27" t="n">
-        <v>11.84146923659554</v>
+        <v>67.45955797656292</v>
       </c>
       <c r="N27" t="n">
         <v>55.05467963002934</v>
       </c>
       <c r="O27" t="n">
-        <v>316.6467257348912</v>
+        <v>72.24740769184247</v>
       </c>
       <c r="P27" t="n">
-        <v>77.02505511384621</v>
+        <v>247.2798680688013</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>100.6520544727515</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10045,10 +10045,10 @@
         <v>178.6904255182403</v>
       </c>
       <c r="O28" t="n">
-        <v>169.5633330205178</v>
+        <v>101.7332434139351</v>
       </c>
       <c r="P28" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10185,22 +10185,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1346767540252</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>89.06968960704245</v>
       </c>
       <c r="L30" t="n">
-        <v>74.14450508809446</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>115.5959099534292</v>
+        <v>67.45955797656292</v>
       </c>
       <c r="N30" t="n">
-        <v>55.05467963002934</v>
+        <v>298.3889451637708</v>
       </c>
       <c r="O30" t="n">
         <v>72.24740769184247</v>
@@ -10270,22 +10270,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>111.0135169984386</v>
+        <v>98.44763558242224</v>
       </c>
       <c r="L31" t="n">
-        <v>168.9736896032166</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>98.56463934727397</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N31" t="n">
-        <v>64.77127489179701</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O31" t="n">
         <v>169.5633330205178</v>
       </c>
       <c r="P31" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10422,31 +10422,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>97.14738262933705</v>
       </c>
       <c r="K33" t="n">
-        <v>275.0438464930818</v>
+        <v>89.06968960704245</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>74.14450508809446</v>
       </c>
       <c r="M33" t="n">
-        <v>67.45955797656292</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>55.05467963002934</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>72.24740769184247</v>
+        <v>1.061312331953346</v>
       </c>
       <c r="P33" t="n">
-        <v>77.02505511384621</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>100.6520544727515</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10510,13 +10510,13 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L34" t="n">
-        <v>155.9582777922794</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>88.48252004326643</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>147.0843927263264</v>
       </c>
       <c r="M35" t="n">
         <v>467.4940748325458</v>
       </c>
       <c r="N35" t="n">
-        <v>454.8408013884635</v>
+        <v>260.5414432578223</v>
       </c>
       <c r="O35" t="n">
         <v>396.0321885132552</v>
       </c>
       <c r="P35" t="n">
-        <v>144.0668852694596</v>
+        <v>150.0121694568369</v>
       </c>
       <c r="Q35" t="n">
         <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10668,10 +10668,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>74.14450508809446</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>67.45955797656292</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>77.02505511384621</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,13 +10744,13 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>111.0135169984386</v>
+        <v>98.44763558242224</v>
       </c>
       <c r="L37" t="n">
-        <v>168.9736896032166</v>
+        <v>96.52639965566436</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10759,10 +10759,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>140.4068258466027</v>
+        <v>98.34564637988495</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,25 +10823,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>147.8548671976309</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L38" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M38" t="n">
-        <v>462.3439621589623</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N38" t="n">
-        <v>34.80683490970354</v>
+        <v>130.0697325517947</v>
       </c>
       <c r="O38" t="n">
         <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>160.0957483487176</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10902,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>22.47545589971953</v>
+        <v>89.06968960704245</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>74.14450508809446</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>77.02505511384621</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>19.35326960180053</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -10978,28 +10978,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>98.44763558242224</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>96.52639965566436</v>
       </c>
       <c r="M40" t="n">
-        <v>98.56463934727397</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>72.39603229134757</v>
       </c>
       <c r="O40" t="n">
-        <v>169.5633330205178</v>
+        <v>101.7332434139351</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
-        <v>434.3676631324684</v>
+        <v>147.0843927263264</v>
       </c>
       <c r="M41" t="n">
         <v>462.3439621589623</v>
@@ -11072,10 +11072,10 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O41" t="n">
-        <v>48.47999650332862</v>
+        <v>386.7249929096911</v>
       </c>
       <c r="P41" t="n">
-        <v>97.59836090437665</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
@@ -11136,13 +11136,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>97.14738262933705</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>74.14450508809446</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>72.24740769184247</v>
       </c>
       <c r="P42" t="n">
-        <v>77.02505511384621</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.21474524495866</v>
+        <v>100.6520544727515</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,7 +11218,7 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0135169984386</v>
+        <v>98.44763558242224</v>
       </c>
       <c r="L43" t="n">
         <v>96.52639965566436</v>
@@ -11227,16 +11227,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>89.80122483712451</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>105.8235180915232</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>247.7997343360486</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
         <v>434.3676631324684</v>
@@ -11306,16 +11306,16 @@
         <v>462.3439621589623</v>
       </c>
       <c r="N44" t="n">
-        <v>454.8408013884635</v>
+        <v>130.0697325517947</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
-        <v>150.0121694568369</v>
+        <v>154.3584698070137</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>97.14738262933705</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,13 +11382,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>67.45955797656292</v>
       </c>
       <c r="N45" t="n">
         <v>55.05467963002934</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>72.24740769184247</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.85718452316601</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11467,10 +11467,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>13.28385620164303</v>
+        <v>101.7332434139351</v>
       </c>
       <c r="P46" t="n">
-        <v>105.8235180915232</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.6505101372181</v>
+        <v>177.650510137218</v>
       </c>
       <c r="C11" t="n">
-        <v>160.9191958247657</v>
+        <v>160.9191958247656</v>
       </c>
       <c r="D11" t="n">
-        <v>40.97735561597631</v>
+        <v>114.0097024419968</v>
       </c>
       <c r="E11" t="n">
         <v>177.0521359011105</v>
       </c>
       <c r="F11" t="n">
-        <v>201.2279636263639</v>
+        <v>91.66648634191874</v>
       </c>
       <c r="G11" t="n">
-        <v>208.264252575813</v>
+        <v>208.2642525758129</v>
       </c>
       <c r="H11" t="n">
-        <v>90.17618045720258</v>
+        <v>126.7053109156274</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>12.90584438389726</v>
+        <v>12.90584438389725</v>
       </c>
       <c r="W11" t="n">
-        <v>34.9027398619325</v>
+        <v>34.90273986193247</v>
       </c>
       <c r="X11" t="n">
-        <v>164.7956992769925</v>
+        <v>164.7956992769924</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.6211718970589</v>
+        <v>180.6211718970588</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.6505101372181</v>
+        <v>177.650510137218</v>
       </c>
       <c r="C14" t="n">
-        <v>160.9191958247657</v>
+        <v>51.35771854032053</v>
       </c>
       <c r="D14" t="n">
-        <v>150.5388329004215</v>
+        <v>150.5388329004214</v>
       </c>
       <c r="E14" t="n">
-        <v>80.5503867089713</v>
+        <v>177.0521359011105</v>
       </c>
       <c r="F14" t="n">
-        <v>91.66648634191876</v>
+        <v>201.2279636263638</v>
       </c>
       <c r="G14" t="n">
-        <v>98.70277529136789</v>
+        <v>208.2642525758129</v>
       </c>
       <c r="H14" t="n">
-        <v>126.7053109156275</v>
+        <v>126.7053109156274</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>14.60272404925451</v>
+        <v>14.60272404925445</v>
       </c>
       <c r="U14" t="n">
-        <v>45.36989468446021</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>12.90584438389726</v>
+        <v>71.33546716066331</v>
       </c>
       <c r="W14" t="n">
-        <v>144.4642171463776</v>
+        <v>34.90273986193249</v>
       </c>
       <c r="X14" t="n">
-        <v>164.7956992769925</v>
+        <v>55.23422199254728</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.6211718970589</v>
+        <v>180.6211718970588</v>
       </c>
     </row>
     <row r="15">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.715789672031322e-14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652870.2927180304</v>
+        <v>652870.2927180307</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652870.2927180304</v>
+        <v>652870.2927180307</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>891388.6497120259</v>
+        <v>891388.6497120261</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>844195.5915939851</v>
+        <v>844195.591593985</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>844195.5915939852</v>
+        <v>844195.5915939851</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>690332.9210923797</v>
       </c>
       <c r="C2" t="n">
-        <v>690332.9210923798</v>
+        <v>690332.9210923797</v>
       </c>
       <c r="D2" t="n">
-        <v>690332.9210923794</v>
+        <v>690332.9210923795</v>
       </c>
       <c r="E2" t="n">
-        <v>593758.7975895794</v>
+        <v>593758.7975895799</v>
       </c>
       <c r="F2" t="n">
-        <v>593758.7975895795</v>
+        <v>593758.7975895797</v>
       </c>
       <c r="G2" t="n">
-        <v>691831.4973226961</v>
+        <v>691831.497322696</v>
       </c>
       <c r="H2" t="n">
         <v>691831.4973226961</v>
       </c>
       <c r="I2" t="n">
-        <v>691831.4973226961</v>
+        <v>691831.4973226963</v>
       </c>
       <c r="J2" t="n">
+        <v>691831.4973226965</v>
+      </c>
+      <c r="K2" t="n">
         <v>691831.4973226967</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>691831.4973226966</v>
       </c>
-      <c r="L2" t="n">
-        <v>691831.4973226967</v>
-      </c>
       <c r="M2" t="n">
-        <v>691831.4973226959</v>
+        <v>691831.4973226968</v>
       </c>
       <c r="N2" t="n">
-        <v>691831.4973226968</v>
+        <v>691831.4973226966</v>
       </c>
       <c r="O2" t="n">
-        <v>691831.4973226967</v>
+        <v>691831.4973226971</v>
       </c>
       <c r="P2" t="n">
-        <v>691831.4973226965</v>
+        <v>691831.4973226964</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101364.248732502</v>
+        <v>101364.2487325019</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167657.1439280419</v>
+        <v>167657.1439280418</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>101364.248732502</v>
+        <v>101364.2487325019</v>
       </c>
       <c r="M3" t="n">
         <v>23151.85858311959</v>
@@ -26402,7 +26402,7 @@
         <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>30612.15955008863</v>
+        <v>30612.15955008868</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,10 +26427,10 @@
         <v>353952.2048684122</v>
       </c>
       <c r="F4" t="n">
-        <v>353952.2048684121</v>
+        <v>353952.2048684122</v>
       </c>
       <c r="G4" t="n">
-        <v>419493.9491352774</v>
+        <v>419493.9491352775</v>
       </c>
       <c r="H4" t="n">
         <v>419493.9491352775</v>
@@ -26439,22 +26439,22 @@
         <v>419493.9491352775</v>
       </c>
       <c r="J4" t="n">
-        <v>423151.8413876117</v>
+        <v>423151.8413876116</v>
       </c>
       <c r="K4" t="n">
         <v>423151.8413876116</v>
       </c>
       <c r="L4" t="n">
-        <v>423151.8413876116</v>
+        <v>423151.8413876117</v>
       </c>
       <c r="M4" t="n">
-        <v>422190.0895336542</v>
+        <v>422190.0895336541</v>
       </c>
       <c r="N4" t="n">
         <v>422190.0895336542</v>
       </c>
       <c r="O4" t="n">
-        <v>422190.0895336541</v>
+        <v>422190.089533654</v>
       </c>
       <c r="P4" t="n">
         <v>422190.0895336541</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26829.93695763127</v>
+        <v>26829.93695763126</v>
       </c>
       <c r="F5" t="n">
-        <v>26829.93695763127</v>
+        <v>26829.93695763126</v>
       </c>
       <c r="G5" t="n">
         <v>37481.92574099715</v>
@@ -26488,10 +26488,10 @@
         <v>37481.92574099715</v>
       </c>
       <c r="I5" t="n">
-        <v>37481.92574099714</v>
+        <v>37481.92574099715</v>
       </c>
       <c r="J5" t="n">
-        <v>55221.16596187474</v>
+        <v>55221.16596187472</v>
       </c>
       <c r="K5" t="n">
         <v>55221.16596187472</v>
@@ -26506,7 +26506,7 @@
         <v>50992.77014201082</v>
       </c>
       <c r="O5" t="n">
-        <v>50992.77014201081</v>
+        <v>50992.77014201082</v>
       </c>
       <c r="P5" t="n">
         <v>50992.77014201081</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193153.2004566881</v>
+        <v>193148.7928795401</v>
       </c>
       <c r="C6" t="n">
-        <v>193153.2004566882</v>
+        <v>193148.7928795401</v>
       </c>
       <c r="D6" t="n">
-        <v>193153.2004566877</v>
+        <v>193148.7928795399</v>
       </c>
       <c r="E6" t="n">
-        <v>-89430.77559385437</v>
+        <v>-89719.22471071595</v>
       </c>
       <c r="F6" t="n">
-        <v>212976.6557635361</v>
+        <v>212688.2066466741</v>
       </c>
       <c r="G6" t="n">
-        <v>133491.3737139196</v>
+        <v>133491.3737139195</v>
       </c>
       <c r="H6" t="n">
         <v>234855.6224464215</v>
       </c>
       <c r="I6" t="n">
-        <v>234855.6224464215</v>
+        <v>234855.6224464217</v>
       </c>
       <c r="J6" t="n">
-        <v>45801.34604516844</v>
+        <v>45801.34604516833</v>
       </c>
       <c r="K6" t="n">
         <v>213458.4899732103</v>
       </c>
       <c r="L6" t="n">
-        <v>112094.2412407084</v>
+        <v>112094.2412407083</v>
       </c>
       <c r="M6" t="n">
-        <v>195496.7790639114</v>
+        <v>195496.7790639123</v>
       </c>
       <c r="N6" t="n">
-        <v>218648.6376470317</v>
+        <v>218648.6376470315</v>
       </c>
       <c r="O6" t="n">
-        <v>188036.4780969431</v>
+        <v>188036.4780969435</v>
       </c>
       <c r="P6" t="n">
-        <v>218648.6376470316</v>
+        <v>218648.6376470315</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="F2" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="G2" t="n">
         <v>332.7712107698044</v>
@@ -26707,7 +26707,7 @@
         <v>332.7712107698044</v>
       </c>
       <c r="J2" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="K2" t="n">
         <v>164.9705103532383</v>
@@ -26722,7 +26722,7 @@
         <v>193.9103335821379</v>
       </c>
       <c r="O2" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="P2" t="n">
         <v>193.9103335821378</v>
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.497477242945</v>
+        <v>130.4974772429449</v>
       </c>
       <c r="F3" t="n">
-        <v>130.497477242945</v>
+        <v>130.4974772429449</v>
       </c>
       <c r="G3" t="n">
-        <v>130.497477242945</v>
+        <v>130.4974772429449</v>
       </c>
       <c r="H3" t="n">
         <v>130.4974772429449</v>
@@ -26808,7 +26808,7 @@
         <v>109.5614772844451</v>
       </c>
       <c r="I4" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="J4" t="n">
         <v>633.3456434719103</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.7053109156275</v>
+        <v>126.7053109156274</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.26519943761087</v>
+        <v>38.26519943761085</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>126.7053109156275</v>
+        <v>126.7053109156274</v>
       </c>
       <c r="M2" t="n">
         <v>28.93982322889948</v>
@@ -26944,7 +26944,7 @@
         <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>38.26519943761079</v>
+        <v>38.26519943761085</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.497477242945</v>
+        <v>130.4974772429449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>523.7841661874653</v>
+        <v>523.7841661874652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.7053109156275</v>
+        <v>126.7053109156274</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.26519943761087</v>
+        <v>38.26519943761085</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="C11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="D11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="E11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="F11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="G11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="H11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="I11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="J11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="K11" t="n">
-        <v>147.8548671976309</v>
+        <v>206.065899854177</v>
       </c>
       <c r="L11" t="n">
-        <v>17.70460697767355</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="N11" t="n">
-        <v>147.2720961767478</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="P11" t="n">
-        <v>206.0658998541769</v>
+        <v>154.6522480292926</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.8966029828383</v>
+        <v>206.065899854177</v>
       </c>
       <c r="S11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="T11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="U11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="V11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="W11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="X11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="Y11" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
     </row>
     <row r="12">
@@ -28178,7 +28178,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>206.0658998541769</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>135.7425175181424</v>
@@ -28190,28 +28190,28 @@
         <v>87.37012053436681</v>
       </c>
       <c r="J12" t="n">
-        <v>97.14738262933703</v>
+        <v>97.14738262933705</v>
       </c>
       <c r="K12" t="n">
-        <v>89.06968960704242</v>
+        <v>89.06968960704245</v>
       </c>
       <c r="L12" t="n">
-        <v>74.14450508809441</v>
+        <v>164.2772350852246</v>
       </c>
       <c r="M12" t="n">
-        <v>67.45955797656286</v>
+        <v>67.45955797656292</v>
       </c>
       <c r="N12" t="n">
-        <v>82.62774185653194</v>
+        <v>55.05467963002934</v>
       </c>
       <c r="O12" t="n">
-        <v>72.24740769184241</v>
+        <v>72.24740769184247</v>
       </c>
       <c r="P12" t="n">
-        <v>77.02505511384615</v>
+        <v>77.02505511384621</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.6520544727514</v>
+        <v>100.6520544727515</v>
       </c>
       <c r="R12" t="n">
         <v>124.6099476115523</v>
@@ -28223,13 +28223,13 @@
         <v>197.2511434027379</v>
       </c>
       <c r="U12" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="V12" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="W12" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -28263,58 +28263,58 @@
         <v>167.6542656104896</v>
       </c>
       <c r="H13" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="I13" t="n">
-        <v>206.0658998541769</v>
+        <v>146.6817327856059</v>
       </c>
       <c r="J13" t="n">
-        <v>129.0250087487091</v>
+        <v>107.1831772063885</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0658998541769</v>
+        <v>98.44763558242224</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>96.52639965566436</v>
       </c>
       <c r="M13" t="n">
-        <v>98.56463934727394</v>
+        <v>120.8607875384222</v>
       </c>
       <c r="N13" t="n">
-        <v>88.4825200432664</v>
+        <v>198.0439973277115</v>
       </c>
       <c r="O13" t="n">
         <v>101.7332434139351</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>206.065899854177</v>
       </c>
       <c r="Q13" t="n">
         <v>128.012257525025</v>
       </c>
       <c r="R13" t="n">
-        <v>206.0658998541769</v>
+        <v>162.8101554985757</v>
       </c>
       <c r="S13" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="T13" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="U13" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="V13" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="W13" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="X13" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="C14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="D14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="E14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="F14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="G14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="H14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="I14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="J14" t="n">
-        <v>206.0658998541769</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="M14" t="n">
-        <v>206.0658998541769</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="O14" t="n">
-        <v>113.0185532412845</v>
+        <v>206.065899854177</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>206.065899854177</v>
       </c>
       <c r="Q14" t="n">
-        <v>168.4856958550603</v>
+        <v>206.065899854177</v>
       </c>
       <c r="R14" t="n">
-        <v>108.8966029828383</v>
+        <v>206.065899854177</v>
       </c>
       <c r="S14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="T14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="U14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="V14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="W14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="X14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
     </row>
     <row r="15">
@@ -28409,7 +28409,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>206.065899854177</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -28421,34 +28421,34 @@
         <v>135.7425175181424</v>
       </c>
       <c r="H15" t="n">
-        <v>107.751615098652</v>
+        <v>137.9308688162507</v>
       </c>
       <c r="I15" t="n">
         <v>87.37012053436681</v>
       </c>
       <c r="J15" t="n">
-        <v>97.14738262933702</v>
+        <v>97.14738262933705</v>
       </c>
       <c r="K15" t="n">
-        <v>89.06968960704239</v>
+        <v>89.06968960704245</v>
       </c>
       <c r="L15" t="n">
-        <v>74.14450508809439</v>
+        <v>74.14450508809446</v>
       </c>
       <c r="M15" t="n">
-        <v>67.45955797656283</v>
+        <v>67.45955797656292</v>
       </c>
       <c r="N15" t="n">
-        <v>55.05467963002924</v>
+        <v>55.05467963002934</v>
       </c>
       <c r="O15" t="n">
-        <v>72.24740769184238</v>
+        <v>72.24740769184247</v>
       </c>
       <c r="P15" t="n">
-        <v>77.02505511384614</v>
+        <v>77.02505511384621</v>
       </c>
       <c r="Q15" t="n">
-        <v>190.7847844698817</v>
+        <v>100.6520544727515</v>
       </c>
       <c r="R15" t="n">
         <v>124.6099476115523</v>
@@ -28460,13 +28460,13 @@
         <v>197.2511434027379</v>
       </c>
       <c r="U15" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="V15" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="W15" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>191.8435724291334</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>206.0658998541769</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>206.065899854177</v>
       </c>
       <c r="F16" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6542656104896</v>
+        <v>206.065899854177</v>
       </c>
       <c r="H16" t="n">
-        <v>159.5418337672185</v>
+        <v>206.065899854177</v>
       </c>
       <c r="I16" t="n">
         <v>146.6817327856059</v>
       </c>
       <c r="J16" t="n">
-        <v>107.1831772063885</v>
+        <v>72.20148623075627</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>155.9819777107706</v>
       </c>
       <c r="L16" t="n">
-        <v>96.52639965566431</v>
+        <v>96.52639965566436</v>
       </c>
       <c r="M16" t="n">
-        <v>98.56463934727392</v>
+        <v>98.56463934727397</v>
       </c>
       <c r="N16" t="n">
-        <v>198.0439973277115</v>
+        <v>88.48252004326643</v>
       </c>
       <c r="O16" t="n">
-        <v>101.7332434139351</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>206.0658998541769</v>
+        <v>105.8235180915232</v>
       </c>
       <c r="Q16" t="n">
         <v>128.012257525025</v>
       </c>
       <c r="R16" t="n">
-        <v>162.8101554985757</v>
+        <v>206.065899854177</v>
       </c>
       <c r="S16" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="T16" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="U16" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="V16" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="W16" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="X16" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.0658998541769</v>
+        <v>206.065899854177</v>
       </c>
     </row>
     <row r="17">
@@ -28585,34 +28585,34 @@
         <v>294.5606434785645</v>
       </c>
       <c r="J17" t="n">
-        <v>131.9938865249828</v>
+        <v>131.9938865249829</v>
       </c>
       <c r="K17" t="n">
-        <v>147.8548671976308</v>
+        <v>171.6542018959817</v>
       </c>
       <c r="L17" t="n">
-        <v>166.6457381773922</v>
+        <v>147.0843927263264</v>
       </c>
       <c r="M17" t="n">
-        <v>132.470129553635</v>
+        <v>242.0316068380803</v>
       </c>
       <c r="N17" t="n">
-        <v>130.0697325517946</v>
+        <v>130.0697325517947</v>
       </c>
       <c r="O17" t="n">
-        <v>135.9543719398943</v>
+        <v>245.5158492243395</v>
       </c>
       <c r="P17" t="n">
-        <v>259.573646741282</v>
+        <v>150.0121694568369</v>
       </c>
       <c r="Q17" t="n">
         <v>160.0957483487176</v>
       </c>
       <c r="R17" t="n">
-        <v>177.24167965074</v>
+        <v>177.2416796507401</v>
       </c>
       <c r="S17" t="n">
-        <v>303.4718108665829</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T17" t="n">
         <v>220.6686239034314</v>
@@ -28621,7 +28621,7 @@
         <v>332.7712107698044</v>
       </c>
       <c r="V17" t="n">
-        <v>332.7712107698044</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>332.7712107698044</v>
@@ -28664,28 +28664,28 @@
         <v>87.37012053436681</v>
       </c>
       <c r="J18" t="n">
-        <v>97.14738262933702</v>
+        <v>97.14738262933705</v>
       </c>
       <c r="K18" t="n">
-        <v>89.06968960704239</v>
+        <v>89.06968960704245</v>
       </c>
       <c r="L18" t="n">
-        <v>74.14450508809439</v>
+        <v>74.14450508809446</v>
       </c>
       <c r="M18" t="n">
-        <v>67.45955797656283</v>
+        <v>67.45955797656292</v>
       </c>
       <c r="N18" t="n">
-        <v>55.05467963002924</v>
+        <v>55.05467963002934</v>
       </c>
       <c r="O18" t="n">
-        <v>72.24740769184238</v>
+        <v>72.24740769184247</v>
       </c>
       <c r="P18" t="n">
-        <v>77.02505511384614</v>
+        <v>77.02505511384621</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.6520544727514</v>
+        <v>100.6520544727515</v>
       </c>
       <c r="R18" t="n">
         <v>124.6099476115523</v>
@@ -28746,16 +28746,16 @@
         <v>107.1831772063885</v>
       </c>
       <c r="K19" t="n">
-        <v>98.44763558242219</v>
+        <v>98.44763558242224</v>
       </c>
       <c r="L19" t="n">
-        <v>96.52639965566431</v>
+        <v>96.52639965566436</v>
       </c>
       <c r="M19" t="n">
-        <v>98.56463934727392</v>
+        <v>98.56463934727397</v>
       </c>
       <c r="N19" t="n">
-        <v>88.48252004326639</v>
+        <v>88.48252004326643</v>
       </c>
       <c r="O19" t="n">
         <v>101.7332434139351</v>
@@ -28819,22 +28819,22 @@
         <v>332.7712107698044</v>
       </c>
       <c r="I20" t="n">
-        <v>184.9991661941195</v>
+        <v>294.5606434785645</v>
       </c>
       <c r="J20" t="n">
         <v>131.9938865249829</v>
       </c>
       <c r="K20" t="n">
-        <v>257.4163444820761</v>
+        <v>147.8548671976309</v>
       </c>
       <c r="L20" t="n">
         <v>147.0843927263264</v>
       </c>
       <c r="M20" t="n">
-        <v>132.4701295536352</v>
+        <v>242.0316068380803</v>
       </c>
       <c r="N20" t="n">
-        <v>230.9664942340278</v>
+        <v>149.6310780028605</v>
       </c>
       <c r="O20" t="n">
         <v>135.9543719398944</v>
@@ -28843,7 +28843,7 @@
         <v>150.0121694568369</v>
       </c>
       <c r="Q20" t="n">
-        <v>269.6572256331628</v>
+        <v>269.6572256331627</v>
       </c>
       <c r="R20" t="n">
         <v>177.2416796507401</v>
@@ -28852,10 +28852,10 @@
         <v>193.9103335821378</v>
       </c>
       <c r="T20" t="n">
-        <v>330.2301011878766</v>
+        <v>220.6686239034314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4357945386371</v>
+        <v>332.7712107698044</v>
       </c>
       <c r="V20" t="n">
         <v>332.7712107698044</v>
@@ -29059,16 +29059,16 @@
         <v>184.9991661941195</v>
       </c>
       <c r="J23" t="n">
-        <v>131.9938865249829</v>
+        <v>237.128637454501</v>
       </c>
       <c r="K23" t="n">
-        <v>257.4163444820759</v>
+        <v>147.8548671976309</v>
       </c>
       <c r="L23" t="n">
         <v>147.0843927263264</v>
       </c>
       <c r="M23" t="n">
-        <v>132.4701295536352</v>
+        <v>242.0316068380803</v>
       </c>
       <c r="N23" t="n">
         <v>130.0697325517947</v>
@@ -29077,19 +29077,19 @@
         <v>135.9543719398944</v>
       </c>
       <c r="P23" t="n">
-        <v>259.5736467412819</v>
+        <v>259.5736467412821</v>
       </c>
       <c r="Q23" t="n">
-        <v>160.0957483487176</v>
+        <v>269.6572256331627</v>
       </c>
       <c r="R23" t="n">
         <v>177.2416796507401</v>
       </c>
       <c r="S23" t="n">
-        <v>303.4718108665828</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T23" t="n">
-        <v>325.8033748329494</v>
+        <v>220.6686239034314</v>
       </c>
       <c r="U23" t="n">
         <v>251.4357945386371</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="C26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="D26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="E26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="F26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="G26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="H26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="I26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="J26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>106.1875169312016</v>
       </c>
       <c r="L26" t="n">
-        <v>106.1875169312014</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="N26" t="n">
-        <v>164.9705103532383</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="R26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="S26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="T26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="U26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="V26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="W26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="X26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="Y26" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
     </row>
     <row r="27">
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="C27" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -29372,19 +29372,19 @@
         <v>107.751615098652</v>
       </c>
       <c r="I27" t="n">
-        <v>87.37012053436681</v>
+        <v>76.83934349983848</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>97.14738262933705</v>
       </c>
       <c r="K27" t="n">
-        <v>89.06968960704245</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>164.9705103532383</v>
+        <v>40.85327508163395</v>
       </c>
       <c r="M27" t="n">
-        <v>55.61808873996738</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -29393,10 +29393,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="Q27" t="n">
-        <v>100.6520544727515</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>77.26741100777869</v>
@@ -29405,22 +29405,22 @@
         <v>163.747870357306</v>
       </c>
       <c r="T27" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="U27" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="V27" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="W27" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="X27" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="Y27" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
     </row>
     <row r="28">
@@ -29430,25 +29430,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="C28" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="D28" t="n">
-        <v>164.9705103532383</v>
+        <v>151.743812874331</v>
       </c>
       <c r="E28" t="n">
-        <v>164.9705103532383</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="H28" t="n">
-        <v>164.9705103532383</v>
+        <v>159.5418337672185</v>
       </c>
       <c r="I28" t="n">
         <v>146.6817327856059</v>
@@ -29457,22 +29457,22 @@
         <v>72.20148623075627</v>
       </c>
       <c r="K28" t="n">
-        <v>98.44763558242224</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>123.2763792846963</v>
+        <v>136.6711698587948</v>
       </c>
       <c r="Q28" t="n">
         <v>60.0555808121635</v>
@@ -29481,25 +29481,25 @@
         <v>162.8101554985757</v>
       </c>
       <c r="S28" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="T28" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="U28" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="V28" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="W28" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="X28" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
       <c r="Y28" t="n">
-        <v>164.9705103532383</v>
+        <v>164.9705103532382</v>
       </c>
     </row>
     <row r="29">
@@ -29545,19 +29545,19 @@
         <v>164.9705103532383</v>
       </c>
       <c r="N29" t="n">
-        <v>162.2614243016002</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>164.9705103532383</v>
+        <v>106.1875169312004</v>
       </c>
       <c r="Q29" t="n">
         <v>164.9705103532383</v>
       </c>
       <c r="R29" t="n">
-        <v>108.8966029828383</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="S29" t="n">
         <v>164.9705103532383</v>
@@ -29609,16 +29609,16 @@
         <v>107.751615098652</v>
       </c>
       <c r="I30" t="n">
-        <v>164.9705103532383</v>
+        <v>87.37012053436681</v>
       </c>
       <c r="J30" t="n">
         <v>164.9705103532383</v>
       </c>
       <c r="K30" t="n">
-        <v>89.06968960704245</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>98.21243513864434</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -29676,7 +29676,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>149.7128705330107</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
@@ -29697,25 +29697,25 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>96.52639965566436</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>23.71124515146942</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="O31" t="n">
-        <v>40.46360143021224</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>164.9705103532383</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.9705103532383</v>
+        <v>88.01239366171136</v>
       </c>
       <c r="R31" t="n">
-        <v>164.9705103532383</v>
+        <v>162.8101554985757</v>
       </c>
       <c r="S31" t="n">
         <v>164.9705103532383</v>
@@ -29773,19 +29773,19 @@
         <v>164.9705103532383</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>164.9705103532383</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
       <c r="M32" t="n">
+        <v>162.2614243016002</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>164.9705103532383</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>162.2614243016002</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29831,10 +29831,10 @@
         <v>164.9705103532383</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="E33" t="n">
-        <v>164.9705103532383</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -29843,10 +29843,10 @@
         <v>135.7425175181424</v>
       </c>
       <c r="H33" t="n">
-        <v>164.9705103532383</v>
+        <v>107.751615098652</v>
       </c>
       <c r="I33" t="n">
-        <v>76.83934349983848</v>
+        <v>87.37012053436681</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29855,25 +29855,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>74.14450508809446</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>67.45955797656292</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>117.2456918879408</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>71.18609535988912</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>100.6520544727515</v>
       </c>
       <c r="R33" t="n">
-        <v>160.3626055292811</v>
+        <v>77.26741100777869</v>
       </c>
       <c r="S33" t="n">
         <v>163.747870357306</v>
@@ -29916,7 +29916,7 @@
         <v>164.9705103532383</v>
       </c>
       <c r="F34" t="n">
-        <v>164.9705103532383</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>164.9705103532383</v>
@@ -29931,28 +29931,28 @@
         <v>72.20148623075627</v>
       </c>
       <c r="K34" t="n">
-        <v>142.4604241385408</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="L34" t="n">
-        <v>164.9705103532383</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>98.56463934727397</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>164.9705103532383</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>164.9705103532383</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>34.90450889604774</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.0555808121635</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="R34" t="n">
-        <v>164.9705103532383</v>
+        <v>162.8101554985757</v>
       </c>
       <c r="S34" t="n">
         <v>164.9705103532383</v>
@@ -30004,7 +30004,7 @@
         <v>193.9103335821378</v>
       </c>
       <c r="I35" t="n">
-        <v>193.9103335821378</v>
+        <v>184.9991661941195</v>
       </c>
       <c r="J35" t="n">
         <v>193.9103335821378</v>
@@ -30013,19 +30013,19 @@
         <v>193.9103335821378</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>193.9103335821378</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>18.16422806294597</v>
-      </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="P35" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>193.9103335821378</v>
@@ -30080,22 +30080,22 @@
         <v>135.7425175181424</v>
       </c>
       <c r="H36" t="n">
-        <v>142.3393609847054</v>
+        <v>107.751615098652</v>
       </c>
       <c r="I36" t="n">
-        <v>76.83934349983848</v>
+        <v>87.37012053436681</v>
       </c>
       <c r="J36" t="n">
         <v>97.14738262933705</v>
       </c>
       <c r="K36" t="n">
-        <v>89.06968960704245</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>74.14450508809446</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>67.45955797656292</v>
       </c>
       <c r="N36" t="n">
         <v>55.05467963002934</v>
@@ -30104,13 +30104,13 @@
         <v>72.24740769184247</v>
       </c>
       <c r="P36" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>100.6520544727515</v>
       </c>
       <c r="R36" t="n">
-        <v>77.26741100777869</v>
+        <v>171.242327990802</v>
       </c>
       <c r="S36" t="n">
         <v>163.747870357306</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>193.9103335821378</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -30156,37 +30156,37 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6542656104896</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="H37" t="n">
         <v>159.5418337672185</v>
       </c>
       <c r="I37" t="n">
-        <v>193.9103335821378</v>
+        <v>146.6817327856059</v>
       </c>
       <c r="J37" t="n">
         <v>72.20148623075627</v>
       </c>
       <c r="K37" t="n">
-        <v>87.79071171138744</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>98.56463934727397</v>
+        <v>128.821943636734</v>
       </c>
       <c r="N37" t="n">
         <v>88.48252004326643</v>
       </c>
       <c r="O37" t="n">
-        <v>101.7332434139351</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>7.477871711638257</v>
       </c>
       <c r="Q37" t="n">
-        <v>193.9103335821378</v>
+        <v>60.0555808121635</v>
       </c>
       <c r="R37" t="n">
         <v>193.9103335821378</v>
@@ -30253,22 +30253,22 @@
         <v>193.9103335821379</v>
       </c>
       <c r="M38" t="n">
-        <v>193.9103335821379</v>
+        <v>188.7602209085543</v>
       </c>
       <c r="N38" t="n">
-        <v>193.9103335821379</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>74.45328564158666</v>
       </c>
       <c r="P38" t="n">
         <v>193.9103335821379</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="R38" t="n">
-        <v>193.9103335821379</v>
+        <v>108.8966029828383</v>
       </c>
       <c r="S38" t="n">
         <v>193.9103335821379</v>
@@ -30311,7 +30311,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>193.9103335821379</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>135.7425175181424</v>
@@ -30326,28 +30326,28 @@
         <v>97.14738262933705</v>
       </c>
       <c r="K39" t="n">
-        <v>66.59423370732293</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>74.14450508809446</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>67.45955797656292</v>
       </c>
       <c r="N39" t="n">
-        <v>55.05467963002934</v>
+        <v>84.8647780940784</v>
       </c>
       <c r="O39" t="n">
-        <v>72.24740769184247</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>77.02505511384621</v>
       </c>
       <c r="Q39" t="n">
-        <v>193.9103335821379</v>
+        <v>81.29878487095094</v>
       </c>
       <c r="R39" t="n">
-        <v>85.07805475414814</v>
+        <v>77.26741100777869</v>
       </c>
       <c r="S39" t="n">
         <v>163.747870357306</v>
@@ -30384,7 +30384,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>193.9103335821379</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -30393,7 +30393,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6542656104896</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="H40" t="n">
         <v>159.5418337672185</v>
@@ -30402,16 +30402,16 @@
         <v>146.6817327856059</v>
       </c>
       <c r="J40" t="n">
+        <v>107.1831772063885</v>
+      </c>
+      <c r="K40" t="n">
         <v>193.9103335821379</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>122.0955699499059</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>98.56463934727397</v>
       </c>
       <c r="N40" t="n">
         <v>193.9103335821379</v>
@@ -30423,7 +30423,7 @@
         <v>105.8235180915232</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.0555808121635</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="R40" t="n">
         <v>162.8101554985757</v>
@@ -30457,52 +30457,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="C41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="D41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="E41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="F41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="H41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="I41" t="n">
         <v>184.9991661941195</v>
       </c>
       <c r="J41" t="n">
-        <v>131.9938865249829</v>
+        <v>55.18385020264218</v>
       </c>
       <c r="K41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="N41" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="P41" t="n">
-        <v>52.41380855246031</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Q41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="R41" t="n">
         <v>108.8966029828383</v>
@@ -30511,22 +30511,22 @@
         <v>193.9103335821378</v>
       </c>
       <c r="T41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="U41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="V41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="W41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="X41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
     </row>
     <row r="42">
@@ -30554,19 +30554,19 @@
         <v>135.7425175181424</v>
       </c>
       <c r="H42" t="n">
-        <v>107.751615098652</v>
+        <v>152.6844264052254</v>
       </c>
       <c r="I42" t="n">
-        <v>87.37012053436681</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>97.14738262933705</v>
       </c>
       <c r="K42" t="n">
         <v>89.06968960704245</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>74.14450508809446</v>
       </c>
       <c r="M42" t="n">
         <v>67.45955797656292</v>
@@ -30575,37 +30575,37 @@
         <v>55.05467963002934</v>
       </c>
       <c r="O42" t="n">
-        <v>72.24740769184247</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>77.02505511384621</v>
       </c>
       <c r="Q42" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>124.6099476115523</v>
+        <v>77.26741100777869</v>
       </c>
       <c r="S42" t="n">
         <v>163.747870357306</v>
       </c>
       <c r="T42" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="U42" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="V42" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="W42" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="X42" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
     </row>
     <row r="43">
@@ -30633,7 +30633,7 @@
         <v>167.6542656104896</v>
       </c>
       <c r="H43" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="I43" t="n">
         <v>146.6817327856059</v>
@@ -30651,40 +30651,40 @@
         <v>98.56463934727397</v>
       </c>
       <c r="N43" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="O43" t="n">
-        <v>193.9103335821378</v>
+        <v>173.3927263711125</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.0555808121635</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="R43" t="n">
-        <v>193.9103335821378</v>
+        <v>162.8101554985757</v>
       </c>
       <c r="S43" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="T43" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="U43" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="V43" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="W43" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="X43" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>193.9103335821378</v>
       </c>
       <c r="I44" t="n">
-        <v>193.9103335821378</v>
+        <v>184.9991661941195</v>
       </c>
       <c r="J44" t="n">
         <v>193.9103335821378</v>
@@ -30724,7 +30724,7 @@
         <v>193.9103335821378</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="M44" t="n">
         <v>193.9103335821378</v>
@@ -30733,13 +30733,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>193.9103335821378</v>
+        <v>98.61442814301363</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>193.9103335821378</v>
+        <v>160.0957483487176</v>
       </c>
       <c r="R44" t="n">
         <v>193.9103335821378</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>170.0397641654989</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
@@ -30788,7 +30788,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>193.9103335821378</v>
+        <v>135.7425175181424</v>
       </c>
       <c r="H45" t="n">
         <v>107.751615098652</v>
@@ -30797,22 +30797,22 @@
         <v>87.37012053436681</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>97.14738262933705</v>
       </c>
       <c r="K45" t="n">
-        <v>182.374897897392</v>
+        <v>89.06968960704245</v>
       </c>
       <c r="L45" t="n">
         <v>74.14450508809446</v>
       </c>
       <c r="M45" t="n">
-        <v>67.45955797656292</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>72.24740769184247</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>77.02505511384621</v>
@@ -30821,10 +30821,10 @@
         <v>100.6520544727515</v>
       </c>
       <c r="R45" t="n">
-        <v>77.26741100777869</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="S45" t="n">
-        <v>163.747870357306</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T45" t="n">
         <v>193.9103335821378</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="C46" t="n">
-        <v>193.9103335821378</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
@@ -30870,13 +30870,13 @@
         <v>167.6542656104896</v>
       </c>
       <c r="H46" t="n">
-        <v>159.5418337672185</v>
+        <v>177.2344246583722</v>
       </c>
       <c r="I46" t="n">
         <v>146.6817327856059</v>
       </c>
       <c r="J46" t="n">
-        <v>193.9103335821378</v>
+        <v>107.1831772063885</v>
       </c>
       <c r="K46" t="n">
         <v>98.44763558242224</v>
@@ -30891,13 +30891,13 @@
         <v>193.9103335821378</v>
       </c>
       <c r="O46" t="n">
-        <v>88.44938721229209</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.9103335821378</v>
+        <v>60.0555808121635</v>
       </c>
       <c r="R46" t="n">
         <v>162.8101554985757</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5246129738409844</v>
+        <v>0.5246129738409839</v>
       </c>
       <c r="H11" t="n">
-        <v>5.372692618348982</v>
+        <v>5.372692618348978</v>
       </c>
       <c r="I11" t="n">
-        <v>20.22514167400457</v>
+        <v>20.22514167400455</v>
       </c>
       <c r="J11" t="n">
-        <v>44.52587038853629</v>
+        <v>44.52587038853625</v>
       </c>
       <c r="K11" t="n">
-        <v>66.73273757122517</v>
+        <v>66.73273757122512</v>
       </c>
       <c r="L11" t="n">
-        <v>82.78786186941122</v>
+        <v>82.78786186941115</v>
       </c>
       <c r="M11" t="n">
-        <v>92.11744784295581</v>
+        <v>92.11744784295574</v>
       </c>
       <c r="N11" t="n">
-        <v>93.60800445488152</v>
+        <v>93.60800445488144</v>
       </c>
       <c r="O11" t="n">
-        <v>88.39138419625023</v>
+        <v>88.39138419625016</v>
       </c>
       <c r="P11" t="n">
-        <v>75.44000140455091</v>
+        <v>75.44000140455086</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.65229927887064</v>
+        <v>56.65229927887059</v>
       </c>
       <c r="R11" t="n">
-        <v>32.95421971803876</v>
+        <v>32.95421971803874</v>
       </c>
       <c r="S11" t="n">
-        <v>11.95461814140144</v>
+        <v>11.95461814140143</v>
       </c>
       <c r="T11" t="n">
-        <v>2.29649329298891</v>
+        <v>2.296493292988908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04196903790727875</v>
+        <v>0.0419690379072787</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2806926868999194</v>
+        <v>0.2806926868999191</v>
       </c>
       <c r="H12" t="n">
-        <v>2.710900423480801</v>
+        <v>2.710900423480799</v>
       </c>
       <c r="I12" t="n">
-        <v>9.664199965633189</v>
+        <v>9.664199965633182</v>
       </c>
       <c r="J12" t="n">
-        <v>26.519303370663</v>
+        <v>26.51930337066298</v>
       </c>
       <c r="K12" t="n">
-        <v>45.3257133929576</v>
+        <v>45.32571339295756</v>
       </c>
       <c r="L12" t="n">
-        <v>60.94601519728294</v>
+        <v>60.94601519728288</v>
       </c>
       <c r="M12" t="n">
-        <v>71.121125097405</v>
+        <v>71.12112509740494</v>
       </c>
       <c r="N12" t="n">
-        <v>73.0034896512207</v>
+        <v>73.00348965122063</v>
       </c>
       <c r="O12" t="n">
-        <v>66.7839306414909</v>
+        <v>66.78393064149084</v>
       </c>
       <c r="P12" t="n">
-        <v>53.59999211512584</v>
+        <v>53.59999211512579</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.83017526111954</v>
+        <v>35.83017526111951</v>
       </c>
       <c r="R12" t="n">
-        <v>17.42756875331255</v>
+        <v>17.42756875331253</v>
       </c>
       <c r="S12" t="n">
-        <v>5.213743548338411</v>
+        <v>5.213743548338407</v>
       </c>
       <c r="T12" t="n">
-        <v>1.131388505530815</v>
+        <v>1.131388505530814</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0184666241381526</v>
+        <v>0.01846662413815258</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2353233196184253</v>
+        <v>0.2353233196184251</v>
       </c>
       <c r="H13" t="n">
-        <v>2.092238241698365</v>
+        <v>2.092238241698363</v>
       </c>
       <c r="I13" t="n">
-        <v>7.076814011797739</v>
+        <v>7.076814011797732</v>
       </c>
       <c r="J13" t="n">
-        <v>16.63735869702267</v>
+        <v>16.63735869702266</v>
       </c>
       <c r="K13" t="n">
-        <v>27.34029113384977</v>
+        <v>27.34029113384975</v>
       </c>
       <c r="L13" t="n">
-        <v>34.98615971854299</v>
+        <v>34.98615971854296</v>
       </c>
       <c r="M13" t="n">
-        <v>36.88800000164098</v>
+        <v>36.88800000164095</v>
       </c>
       <c r="N13" t="n">
-        <v>36.01088581033596</v>
+        <v>36.01088581033594</v>
       </c>
       <c r="O13" t="n">
-        <v>33.26188157661162</v>
+        <v>33.26188157661159</v>
       </c>
       <c r="P13" t="n">
-        <v>28.46128585639572</v>
+        <v>28.4612858563957</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.70511906368469</v>
+        <v>19.70511906368467</v>
       </c>
       <c r="R13" t="n">
-        <v>10.58099217120665</v>
+        <v>10.58099217120664</v>
       </c>
       <c r="S13" t="n">
-        <v>4.101043670077465</v>
+        <v>4.101043670077462</v>
       </c>
       <c r="T13" t="n">
-        <v>1.005472365642363</v>
+        <v>1.005472365642362</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0128358174337323</v>
+        <v>0.01283581743373229</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5246129738409846</v>
+        <v>0.5246129738409839</v>
       </c>
       <c r="H14" t="n">
-        <v>5.372692618348985</v>
+        <v>5.372692618348978</v>
       </c>
       <c r="I14" t="n">
-        <v>20.22514167400458</v>
+        <v>20.22514167400455</v>
       </c>
       <c r="J14" t="n">
-        <v>44.52587038853631</v>
+        <v>44.52587038853625</v>
       </c>
       <c r="K14" t="n">
-        <v>66.7327375712252</v>
+        <v>66.73273757122512</v>
       </c>
       <c r="L14" t="n">
-        <v>82.78786186941126</v>
+        <v>82.78786186941115</v>
       </c>
       <c r="M14" t="n">
-        <v>92.11744784295585</v>
+        <v>92.11744784295574</v>
       </c>
       <c r="N14" t="n">
-        <v>93.60800445488157</v>
+        <v>93.60800445488144</v>
       </c>
       <c r="O14" t="n">
-        <v>88.39138419625027</v>
+        <v>88.39138419625016</v>
       </c>
       <c r="P14" t="n">
-        <v>75.44000140455094</v>
+        <v>75.44000140455086</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.65229927887066</v>
+        <v>56.65229927887059</v>
       </c>
       <c r="R14" t="n">
-        <v>32.95421971803878</v>
+        <v>32.95421971803874</v>
       </c>
       <c r="S14" t="n">
-        <v>11.95461814140145</v>
+        <v>11.95461814140143</v>
       </c>
       <c r="T14" t="n">
-        <v>2.296493292988911</v>
+        <v>2.296493292988908</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04196903790727876</v>
+        <v>0.0419690379072787</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2806926868999195</v>
+        <v>0.2806926868999191</v>
       </c>
       <c r="H15" t="n">
-        <v>2.710900423480802</v>
+        <v>2.710900423480799</v>
       </c>
       <c r="I15" t="n">
-        <v>9.664199965633195</v>
+        <v>9.664199965633182</v>
       </c>
       <c r="J15" t="n">
-        <v>26.51930337066301</v>
+        <v>26.51930337066298</v>
       </c>
       <c r="K15" t="n">
-        <v>45.32571339295762</v>
+        <v>45.32571339295756</v>
       </c>
       <c r="L15" t="n">
-        <v>60.94601519728296</v>
+        <v>60.94601519728288</v>
       </c>
       <c r="M15" t="n">
-        <v>71.12112509740503</v>
+        <v>71.12112509740494</v>
       </c>
       <c r="N15" t="n">
-        <v>73.00348965122073</v>
+        <v>73.00348965122063</v>
       </c>
       <c r="O15" t="n">
-        <v>66.78393064149093</v>
+        <v>66.78393064149084</v>
       </c>
       <c r="P15" t="n">
-        <v>53.59999211512586</v>
+        <v>53.59999211512579</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.83017526111955</v>
+        <v>35.83017526111951</v>
       </c>
       <c r="R15" t="n">
-        <v>17.42756875331255</v>
+        <v>17.42756875331253</v>
       </c>
       <c r="S15" t="n">
-        <v>5.213743548338414</v>
+        <v>5.213743548338407</v>
       </c>
       <c r="T15" t="n">
-        <v>1.131388505530815</v>
+        <v>1.131388505530814</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0184666241381526</v>
+        <v>0.01846662413815258</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2353233196184254</v>
+        <v>0.2353233196184251</v>
       </c>
       <c r="H16" t="n">
-        <v>2.092238241698366</v>
+        <v>2.092238241698363</v>
       </c>
       <c r="I16" t="n">
-        <v>7.076814011797741</v>
+        <v>7.076814011797732</v>
       </c>
       <c r="J16" t="n">
-        <v>16.63735869702268</v>
+        <v>16.63735869702266</v>
       </c>
       <c r="K16" t="n">
-        <v>27.34029113384979</v>
+        <v>27.34029113384975</v>
       </c>
       <c r="L16" t="n">
-        <v>34.986159718543</v>
+        <v>34.98615971854296</v>
       </c>
       <c r="M16" t="n">
-        <v>36.88800000164099</v>
+        <v>36.88800000164095</v>
       </c>
       <c r="N16" t="n">
-        <v>36.01088581033599</v>
+        <v>36.01088581033594</v>
       </c>
       <c r="O16" t="n">
-        <v>33.26188157661164</v>
+        <v>33.26188157661159</v>
       </c>
       <c r="P16" t="n">
-        <v>28.46128585639573</v>
+        <v>28.4612858563957</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.7051190636847</v>
+        <v>19.70511906368467</v>
       </c>
       <c r="R16" t="n">
-        <v>10.58099217120665</v>
+        <v>10.58099217120664</v>
       </c>
       <c r="S16" t="n">
-        <v>4.101043670077467</v>
+        <v>4.101043670077462</v>
       </c>
       <c r="T16" t="n">
-        <v>1.005472365642363</v>
+        <v>1.005472365642362</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01283581743373231</v>
+        <v>0.01283581743373229</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5246129738409846</v>
+        <v>0.5246129738409839</v>
       </c>
       <c r="H17" t="n">
-        <v>5.372692618348985</v>
+        <v>5.372692618348978</v>
       </c>
       <c r="I17" t="n">
-        <v>20.22514167400458</v>
+        <v>20.22514167400455</v>
       </c>
       <c r="J17" t="n">
-        <v>44.52587038853631</v>
+        <v>44.52587038853625</v>
       </c>
       <c r="K17" t="n">
-        <v>66.7327375712252</v>
+        <v>66.73273757122512</v>
       </c>
       <c r="L17" t="n">
-        <v>82.78786186941126</v>
+        <v>82.78786186941115</v>
       </c>
       <c r="M17" t="n">
-        <v>92.11744784295585</v>
+        <v>92.11744784295574</v>
       </c>
       <c r="N17" t="n">
-        <v>93.60800445488157</v>
+        <v>93.60800445488144</v>
       </c>
       <c r="O17" t="n">
-        <v>88.39138419625027</v>
+        <v>88.39138419625016</v>
       </c>
       <c r="P17" t="n">
-        <v>75.44000140455094</v>
+        <v>75.44000140455086</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.65229927887066</v>
+        <v>56.65229927887059</v>
       </c>
       <c r="R17" t="n">
-        <v>32.95421971803878</v>
+        <v>32.95421971803874</v>
       </c>
       <c r="S17" t="n">
-        <v>11.95461814140145</v>
+        <v>11.95461814140143</v>
       </c>
       <c r="T17" t="n">
-        <v>2.296493292988911</v>
+        <v>2.296493292988908</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04196903790727876</v>
+        <v>0.0419690379072787</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2806926868999195</v>
+        <v>0.2806926868999191</v>
       </c>
       <c r="H18" t="n">
-        <v>2.710900423480802</v>
+        <v>2.710900423480799</v>
       </c>
       <c r="I18" t="n">
-        <v>9.664199965633195</v>
+        <v>9.664199965633182</v>
       </c>
       <c r="J18" t="n">
-        <v>26.51930337066301</v>
+        <v>26.51930337066298</v>
       </c>
       <c r="K18" t="n">
-        <v>45.32571339295762</v>
+        <v>45.32571339295756</v>
       </c>
       <c r="L18" t="n">
-        <v>60.94601519728296</v>
+        <v>60.94601519728288</v>
       </c>
       <c r="M18" t="n">
-        <v>71.12112509740503</v>
+        <v>71.12112509740494</v>
       </c>
       <c r="N18" t="n">
-        <v>73.00348965122073</v>
+        <v>73.00348965122063</v>
       </c>
       <c r="O18" t="n">
-        <v>66.78393064149093</v>
+        <v>66.78393064149084</v>
       </c>
       <c r="P18" t="n">
-        <v>53.59999211512586</v>
+        <v>53.59999211512579</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.83017526111955</v>
+        <v>35.83017526111951</v>
       </c>
       <c r="R18" t="n">
-        <v>17.42756875331255</v>
+        <v>17.42756875331253</v>
       </c>
       <c r="S18" t="n">
-        <v>5.213743548338414</v>
+        <v>5.213743548338407</v>
       </c>
       <c r="T18" t="n">
-        <v>1.131388505530815</v>
+        <v>1.131388505530814</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0184666241381526</v>
+        <v>0.01846662413815258</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2353233196184254</v>
+        <v>0.2353233196184251</v>
       </c>
       <c r="H19" t="n">
-        <v>2.092238241698366</v>
+        <v>2.092238241698363</v>
       </c>
       <c r="I19" t="n">
-        <v>7.076814011797741</v>
+        <v>7.076814011797732</v>
       </c>
       <c r="J19" t="n">
-        <v>16.63735869702268</v>
+        <v>16.63735869702266</v>
       </c>
       <c r="K19" t="n">
-        <v>27.34029113384979</v>
+        <v>27.34029113384975</v>
       </c>
       <c r="L19" t="n">
-        <v>34.986159718543</v>
+        <v>34.98615971854296</v>
       </c>
       <c r="M19" t="n">
-        <v>36.88800000164099</v>
+        <v>36.88800000164095</v>
       </c>
       <c r="N19" t="n">
-        <v>36.01088581033599</v>
+        <v>36.01088581033594</v>
       </c>
       <c r="O19" t="n">
-        <v>33.26188157661164</v>
+        <v>33.26188157661159</v>
       </c>
       <c r="P19" t="n">
-        <v>28.46128585639573</v>
+        <v>28.4612858563957</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.7051190636847</v>
+        <v>19.70511906368467</v>
       </c>
       <c r="R19" t="n">
-        <v>10.58099217120665</v>
+        <v>10.58099217120664</v>
       </c>
       <c r="S19" t="n">
-        <v>4.101043670077467</v>
+        <v>4.101043670077462</v>
       </c>
       <c r="T19" t="n">
-        <v>1.005472365642363</v>
+        <v>1.005472365642362</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01283581743373231</v>
+        <v>0.01283581743373229</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>21.06673366005749</v>
+        <v>21.06673366005753</v>
       </c>
       <c r="J11" t="n">
-        <v>74.07201332919409</v>
+        <v>74.07201332919411</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>58.21103265654607</v>
       </c>
       <c r="L11" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>73.59577030054183</v>
+        <v>73.59577030054182</v>
       </c>
       <c r="N11" t="n">
-        <v>17.20236362495318</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>70.1115279142826</v>
+        <v>100.5419258509989</v>
       </c>
       <c r="P11" t="n">
-        <v>56.05373039734005</v>
+        <v>4.64007857245565</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>60.71184193758321</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>28.82422020343692</v>
       </c>
       <c r="S11" t="n">
-        <v>12.15556627203914</v>
+        <v>12.15556627203919</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35474,7 +35474,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>62.55966777062764</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>90.13272999713014</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>27.57306222650267</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35559,37 +35559,37 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>46.52406608695847</v>
+        <v>46.52406608695852</v>
       </c>
       <c r="I13" t="n">
-        <v>59.38416706857105</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.84183154232059</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>107.6182642717547</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>22.29614819114824</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>100.2423817626538</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>43.25574435560128</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>21.0667336600575</v>
+        <v>21.06673366005753</v>
       </c>
       <c r="J14" t="n">
-        <v>74.07201332919411</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>58.98150712785058</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>101.2057963322246</v>
+      </c>
+      <c r="O14" t="n">
         <v>109.5614772844451</v>
       </c>
-      <c r="L14" t="n">
-        <v>58.98150712785063</v>
-      </c>
-      <c r="M14" t="n">
-        <v>73.59577030054187</v>
-      </c>
-      <c r="N14" t="n">
-        <v>75.99616730238235</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>56.05373039734005</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.389947506342688</v>
+        <v>45.97015150545933</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>28.82422020343692</v>
       </c>
       <c r="S14" t="n">
-        <v>12.15556627203915</v>
+        <v>12.15556627203919</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>59.95347627953143</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35717,7 +35717,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>30.17925371759872</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.13272999713031</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35778,25 +35778,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.7598809384496</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>57.06033333965757</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>59.09127568097782</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>38.41163424368735</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>46.52406608695852</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>57.53434212834841</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35814,19 +35814,19 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>33.8070108296322</v>
       </c>
       <c r="P16" t="n">
-        <v>100.2423817626538</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>43.25574435560133</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>23.7993346983508</v>
       </c>
       <c r="L17" t="n">
-        <v>19.56134545106584</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="P17" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,7 +35908,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>81.33541623116724</v>
       </c>
       <c r="V17" t="n">
-        <v>4.237989247285043</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,22 +36115,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>109.5614772844451</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
-        <v>100.8967616822331</v>
+        <v>19.56134545106578</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36148,10 +36148,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>81.33541623116724</v>
       </c>
       <c r="V20" t="n">
         <v>4.237989247285043</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>105.1347509295181</v>
       </c>
       <c r="K23" t="n">
-        <v>109.561477284445</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36373,19 +36373,19 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.561477284445</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>105.134750929518</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>208.8371036072122</v>
+        <v>208.8371036072121</v>
       </c>
       <c r="K26" t="n">
-        <v>189.2563618763804</v>
+        <v>295.443878807582</v>
       </c>
       <c r="L26" t="n">
-        <v>393.4707873373434</v>
+        <v>287.283270406142</v>
       </c>
       <c r="M26" t="n">
-        <v>335.0239452789107</v>
+        <v>499.9944556321489</v>
       </c>
       <c r="N26" t="n">
-        <v>489.7415791899071</v>
+        <v>324.7710688366687</v>
       </c>
       <c r="O26" t="n">
-        <v>425.0483269265991</v>
+        <v>425.048326926599</v>
       </c>
       <c r="P26" t="n">
         <v>184.658487041505</v>
@@ -36616,7 +36616,7 @@
         <v>225.6823522908215</v>
       </c>
       <c r="R26" t="n">
-        <v>56.07390737039999</v>
+        <v>56.0739073703999</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>90.82600526514386</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>244.3993180430487</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>335.2253233081933</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36732,10 +36732,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>15.96494383871897</v>
+        <v>2.738246359811648</v>
       </c>
       <c r="E28" t="n">
-        <v>17.99588618003915</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36744,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5.428676586019856</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>66.522874770816</v>
       </c>
       <c r="L28" t="n">
-        <v>72.44728994755224</v>
+        <v>237.4178003007905</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>255.1784158282122</v>
+        <v>255.1784158282121</v>
       </c>
       <c r="O28" t="n">
-        <v>67.83008960658265</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>157.8596870397758</v>
+        <v>30.8476517672716</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36841,19 +36841,19 @@
         <v>499.994455632149</v>
       </c>
       <c r="N29" t="n">
-        <v>487.0324931382689</v>
+        <v>489.7415791899071</v>
       </c>
       <c r="O29" t="n">
         <v>260.0778165733608</v>
       </c>
       <c r="P29" t="n">
-        <v>349.6289973947433</v>
+        <v>290.8460039727054</v>
       </c>
       <c r="Q29" t="n">
         <v>225.6823522908215</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.07390737039999</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>88.13116685339985</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>198.9578044779265</v>
+        <v>67.82312772390128</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>24.06793005054987</v>
       </c>
       <c r="M30" t="n">
-        <v>48.13635197686632</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>243.3342655337415</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.738246359811562</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36990,28 +36990,28 @@
         <v>92.76902412248205</v>
       </c>
       <c r="K31" t="n">
-        <v>12.5658814160164</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>72.44728994755224</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>87.08540799854951</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>255.1784158282122</v>
       </c>
       <c r="O31" t="n">
-        <v>108.2936910367949</v>
+        <v>67.83008960658265</v>
       </c>
       <c r="P31" t="n">
-        <v>199.5538181083179</v>
+        <v>59.14699226171512</v>
       </c>
       <c r="Q31" t="n">
-        <v>104.9149295410748</v>
+        <v>27.95681284954786</v>
       </c>
       <c r="R31" t="n">
-        <v>2.160354854662666</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>208.8371036072122</v>
       </c>
       <c r="K32" t="n">
-        <v>354.2268722296188</v>
+        <v>189.2563618763804</v>
       </c>
       <c r="L32" t="n">
-        <v>287.283270406142</v>
+        <v>452.2537807593803</v>
       </c>
       <c r="M32" t="n">
-        <v>499.994455632149</v>
+        <v>497.2853695805109</v>
       </c>
       <c r="N32" t="n">
         <v>324.7710688366687</v>
       </c>
       <c r="O32" t="n">
-        <v>422.339240874961</v>
+        <v>425.0483269265991</v>
       </c>
       <c r="P32" t="n">
         <v>184.658487041505</v>
@@ -37127,10 +37127,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>18.85808677859276</v>
       </c>
       <c r="E33" t="n">
-        <v>8.937076646064497</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -37139,7 +37139,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>57.21889525458635</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>185.9741568860393</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>62.19101225791142</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>254.1762242716884</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.09519452150244</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37212,7 +37212,7 @@
         <v>17.99588618003915</v>
       </c>
       <c r="F34" t="n">
-        <v>18.81148894343383</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37227,28 +37227,28 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>155.0263055545572</v>
+        <v>177.5363917692547</v>
       </c>
       <c r="L34" t="n">
-        <v>224.4023884898534</v>
+        <v>72.44728994755224</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>87.08540799854951</v>
       </c>
       <c r="N34" t="n">
-        <v>76.48799030997189</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>63.2372669393032</v>
       </c>
       <c r="P34" t="n">
-        <v>34.58330775507954</v>
+        <v>69.48781665112728</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>104.9149295410748</v>
       </c>
       <c r="R34" t="n">
-        <v>2.160354854662666</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.911167388018349</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>237.7769268361116</v>
@@ -37309,25 +37309,25 @@
         <v>383.1666954585182</v>
       </c>
       <c r="L35" t="n">
-        <v>46.8259408558114</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>335.0239452789107</v>
       </c>
       <c r="N35" t="n">
-        <v>342.9352968996147</v>
+        <v>324.3820442881654</v>
       </c>
       <c r="O35" t="n">
-        <v>260.0778165733608</v>
+        <v>453.9881501554985</v>
       </c>
       <c r="P35" t="n">
-        <v>187.9650493947604</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>254.622175519721</v>
       </c>
       <c r="R35" t="n">
-        <v>16.66865393139773</v>
+        <v>85.01373059929946</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37376,7 +37376,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>34.5877458860534</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>104.8406439750954</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>116.8852784682916</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>46.63238037924963</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.826642091454</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37452,37 +37452,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>26.25606797164817</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>47.22860079653191</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>100.3565931274038</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>72.44728994755224</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>215.9073516352835</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>92.17709016820268</v>
       </c>
       <c r="P37" t="n">
-        <v>34.58330775507954</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.89807605711279</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>31.10017808356215</v>
@@ -37543,7 +37543,7 @@
         <v>237.7769268361117</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>189.2563618763804</v>
       </c>
       <c r="L38" t="n">
         <v>481.1936039882798</v>
@@ -37552,19 +37552,19 @@
         <v>523.784166187465</v>
       </c>
       <c r="N38" t="n">
-        <v>98.64743594004672</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>260.0778165733608</v>
+        <v>334.5311022149475</v>
       </c>
       <c r="P38" t="n">
-        <v>378.5688206236429</v>
+        <v>43.89816412530095</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>254.6221755197211</v>
       </c>
       <c r="R38" t="n">
-        <v>85.01373059929955</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37607,7 +37607,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>50.4041014985886</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -37631,19 +37631,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>29.81009846404906</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>121.6629258902954</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>93.25827910938642</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.810643746369457</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>44.90476706761854</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>26.25606797164826</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>121.7088473513816</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>95.46269799971566</v>
       </c>
       <c r="L40" t="n">
-        <v>25.56917029424153</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>105.4278135388715</v>
+        <v>177.823845830219</v>
       </c>
       <c r="O40" t="n">
-        <v>67.83008960658265</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.89807605711287</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>99.05044345661601</v>
       </c>
       <c r="K41" t="n">
-        <v>383.1666954585182</v>
+        <v>383.1666954585183</v>
       </c>
       <c r="L41" t="n">
-        <v>287.283270406142</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>523.784166187465</v>
       </c>
       <c r="N41" t="n">
-        <v>518.6814024188066</v>
+        <v>324.7710688366687</v>
       </c>
       <c r="O41" t="n">
-        <v>106.435958145572</v>
+        <v>444.6809545519346</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>43.89816412530095</v>
       </c>
       <c r="Q41" t="n">
-        <v>254.622175519721</v>
+        <v>254.6221755197211</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37850,10 +37850,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>44.93281130657339</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>106.5402130477711</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>151.473024354345</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>34.36849981491934</v>
+        <v>34.36849981491942</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.5658814160164</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37947,19 +37947,19 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>195.2290383759959</v>
+        <v>105.4278135388715</v>
       </c>
       <c r="O43" t="n">
-        <v>92.17709016820268</v>
+        <v>71.65948295717736</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>88.0868154906147</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.89807605711287</v>
       </c>
       <c r="R43" t="n">
-        <v>31.10017808356215</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.911167388018349</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>237.7769268361116</v>
       </c>
       <c r="K44" t="n">
-        <v>293.8552007205555</v>
+        <v>383.1666954585182</v>
       </c>
       <c r="L44" t="n">
-        <v>287.283270406142</v>
+        <v>481.1936039882798</v>
       </c>
       <c r="M44" t="n">
         <v>523.784166187465</v>
       </c>
       <c r="N44" t="n">
-        <v>324.7710688366687</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>57.95596164224341</v>
+        <v>358.6922447163744</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.346300350176773</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.622175519721</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>85.01373059929946</v>
@@ -38069,7 +38069,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>4.667638555154054</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -38084,7 +38084,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>58.16781606399541</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>93.3052082903496</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38117,10 +38117,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>116.6429225743591</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>30.16246322483183</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -38148,10 +38148,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>13.826642091454</v>
       </c>
       <c r="C46" t="n">
-        <v>26.57378065093548</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38166,13 +38166,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>17.69259089115371</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>99.58434089891529</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38190,10 +38190,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>228.4936413372174</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8547527699743</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
